--- a/GATEWAY/A1#111#GMCSRLXX/Ginevra_Media_Communication/GMC-Medical/1.0.0/accreditamento-checklist_V8.2.6.1.xlsx
+++ b/GATEWAY/A1#111#GMCSRLXX/Ginevra_Media_Communication/GMC-Medical/1.0.0/accreditamento-checklist_V8.2.6.1.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="448">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -376,6 +376,9 @@
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_RSA_KO</t>
   </si>
   <si>
+    <t xml:space="preserve">NO</t>
+  </si>
+  <si>
     <t xml:space="preserve">CERT_VAC</t>
   </si>
   <si>
@@ -490,6 +493,9 @@
     <t xml:space="preserve">VALIDAZIONE_RSA_TIMEOUT</t>
   </si>
   <si>
+    <t xml:space="preserve">Timeout gestito con retry automatico e notifica operatore dopo 3 tentativi falliti</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CERT_VAC_TIMEOUT</t>
   </si>
   <si>
@@ -1734,9 +1740,6 @@
   </si>
   <si>
     <t xml:space="preserve">FAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO</t>
   </si>
 </sst>
 </file>
@@ -2365,7 +2368,7 @@
       <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.45703125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="130.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="0" width="8.82"/>
@@ -2452,7 +2455,7 @@
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.45703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="194.18"/>
@@ -3526,17 +3529,17 @@
   <dimension ref="A1:W752"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F151" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="K10" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A151" activeCellId="0" sqref="A151"/>
-      <selection pane="bottomRight" activeCell="G4" activeCellId="0" sqref="G4"/>
+      <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="S31" activeCellId="0" sqref="S31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.45703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="63.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="104.82"/>
@@ -4022,7 +4025,9 @@
       <c r="G15" s="31"/>
       <c r="H15" s="31"/>
       <c r="I15" s="37"/>
-      <c r="J15" s="32"/>
+      <c r="J15" s="32" t="s">
+        <v>63</v>
+      </c>
       <c r="K15" s="32"/>
       <c r="L15" s="32"/>
       <c r="M15" s="32"/>
@@ -4047,10 +4052,10 @@
         <v>47</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E16" s="36" t="s">
         <v>53</v>
@@ -4084,10 +4089,10 @@
         <v>47</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E17" s="36" t="s">
         <v>53</v>
@@ -4121,10 +4126,10 @@
         <v>47</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E18" s="36" t="s">
         <v>53</v>
@@ -4161,10 +4166,10 @@
         <v>48</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E19" s="36" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F19" s="31"/>
       <c r="G19" s="31"/>
@@ -4198,10 +4203,10 @@
         <v>55</v>
       </c>
       <c r="D20" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="36" t="s">
         <v>71</v>
-      </c>
-      <c r="E20" s="36" t="s">
-        <v>70</v>
       </c>
       <c r="F20" s="31"/>
       <c r="G20" s="31"/>
@@ -4235,10 +4240,10 @@
         <v>57</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F21" s="31"/>
       <c r="G21" s="31"/>
@@ -4272,10 +4277,10 @@
         <v>59</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F22" s="31"/>
       <c r="G22" s="31"/>
@@ -4309,16 +4314,18 @@
         <v>61</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F23" s="31"/>
       <c r="G23" s="31"/>
       <c r="H23" s="31"/>
       <c r="I23" s="37"/>
-      <c r="J23" s="32"/>
+      <c r="J23" s="32" t="s">
+        <v>63</v>
+      </c>
       <c r="K23" s="32"/>
       <c r="L23" s="32"/>
       <c r="M23" s="32"/>
@@ -4343,13 +4350,13 @@
         <v>47</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F24" s="31"/>
       <c r="G24" s="31"/>
@@ -4380,13 +4387,13 @@
         <v>47</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F25" s="31"/>
       <c r="G25" s="31"/>
@@ -4417,13 +4424,13 @@
         <v>47</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F26" s="31"/>
       <c r="G26" s="31"/>
@@ -4457,10 +4464,10 @@
         <v>48</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F27" s="31"/>
       <c r="G27" s="31"/>
@@ -4478,7 +4485,7 @@
       <c r="S27" s="32"/>
       <c r="T27" s="32"/>
       <c r="U27" s="33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V27" s="34"/>
       <c r="W27" s="32" t="s">
@@ -4496,10 +4503,10 @@
         <v>55</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F28" s="31"/>
       <c r="G28" s="31"/>
@@ -4517,7 +4524,7 @@
       <c r="S28" s="32"/>
       <c r="T28" s="32"/>
       <c r="U28" s="33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V28" s="34"/>
       <c r="W28" s="32" t="s">
@@ -4535,10 +4542,10 @@
         <v>57</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F29" s="31"/>
       <c r="G29" s="31"/>
@@ -4556,7 +4563,7 @@
       <c r="S29" s="32"/>
       <c r="T29" s="32"/>
       <c r="U29" s="33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V29" s="34"/>
       <c r="W29" s="32" t="s">
@@ -4574,10 +4581,10 @@
         <v>59</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F30" s="31"/>
       <c r="G30" s="31"/>
@@ -4595,7 +4602,7 @@
       <c r="S30" s="32"/>
       <c r="T30" s="32"/>
       <c r="U30" s="33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V30" s="34"/>
       <c r="W30" s="32" t="s">
@@ -4613,28 +4620,42 @@
         <v>61</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F31" s="31"/>
       <c r="G31" s="31"/>
       <c r="H31" s="31"/>
       <c r="I31" s="37"/>
-      <c r="J31" s="32"/>
+      <c r="J31" s="32" t="s">
+        <v>63</v>
+      </c>
       <c r="K31" s="32"/>
       <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
+      <c r="M31" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="N31" s="32" t="s">
+        <v>81</v>
+      </c>
       <c r="O31" s="32"/>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="32"/>
-      <c r="R31" s="32"/>
-      <c r="S31" s="32"/>
+      <c r="P31" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q31" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="R31" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="S31" s="32" t="s">
+        <v>86</v>
+      </c>
       <c r="T31" s="32"/>
       <c r="U31" s="33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V31" s="34"/>
       <c r="W31" s="32" t="s">
@@ -4649,13 +4670,13 @@
         <v>47</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F32" s="31"/>
       <c r="G32" s="31"/>
@@ -4673,7 +4694,7 @@
       <c r="S32" s="32"/>
       <c r="T32" s="32"/>
       <c r="U32" s="33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V32" s="34"/>
       <c r="W32" s="32" t="s">
@@ -4688,13 +4709,13 @@
         <v>47</v>
       </c>
       <c r="C33" s="35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F33" s="31"/>
       <c r="G33" s="31"/>
@@ -4712,7 +4733,7 @@
       <c r="S33" s="32"/>
       <c r="T33" s="32"/>
       <c r="U33" s="33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V33" s="34"/>
       <c r="W33" s="32" t="s">
@@ -4727,13 +4748,13 @@
         <v>47</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F34" s="31"/>
       <c r="G34" s="31"/>
@@ -4751,7 +4772,7 @@
       <c r="S34" s="32"/>
       <c r="T34" s="32"/>
       <c r="U34" s="33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V34" s="34"/>
       <c r="W34" s="32" t="s">
@@ -4769,10 +4790,10 @@
         <v>48</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F35" s="31"/>
       <c r="G35" s="31"/>
@@ -4806,10 +4827,10 @@
         <v>48</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F36" s="31"/>
       <c r="G36" s="31"/>
@@ -4843,10 +4864,10 @@
         <v>48</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F37" s="31"/>
       <c r="G37" s="31"/>
@@ -4880,10 +4901,10 @@
         <v>48</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F38" s="31"/>
       <c r="G38" s="31"/>
@@ -4917,10 +4938,10 @@
         <v>48</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F39" s="31"/>
       <c r="G39" s="31"/>
@@ -4954,10 +4975,10 @@
         <v>48</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F40" s="31"/>
       <c r="G40" s="31"/>
@@ -4991,10 +5012,10 @@
         <v>48</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F41" s="31"/>
       <c r="G41" s="31"/>
@@ -5028,10 +5049,10 @@
         <v>48</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E42" s="29" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F42" s="31"/>
       <c r="G42" s="31"/>
@@ -5065,10 +5086,10 @@
         <v>55</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E43" s="29" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F43" s="31"/>
       <c r="G43" s="31"/>
@@ -5102,10 +5123,10 @@
         <v>55</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E44" s="29" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F44" s="31"/>
       <c r="G44" s="31"/>
@@ -5139,10 +5160,10 @@
         <v>55</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E45" s="29" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F45" s="31"/>
       <c r="G45" s="31"/>
@@ -5176,10 +5197,10 @@
         <v>55</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E46" s="29" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F46" s="31"/>
       <c r="G46" s="31"/>
@@ -5213,10 +5234,10 @@
         <v>55</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E47" s="29" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F47" s="31"/>
       <c r="G47" s="31"/>
@@ -5250,10 +5271,10 @@
         <v>55</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E48" s="29" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F48" s="31"/>
       <c r="G48" s="31"/>
@@ -5287,10 +5308,10 @@
         <v>55</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E49" s="29" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F49" s="31"/>
       <c r="G49" s="31"/>
@@ -5324,10 +5345,10 @@
         <v>55</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E50" s="29" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F50" s="31"/>
       <c r="G50" s="31"/>
@@ -5361,10 +5382,10 @@
         <v>55</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E51" s="29" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F51" s="31"/>
       <c r="G51" s="31"/>
@@ -5398,10 +5419,10 @@
         <v>55</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E52" s="29" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F52" s="31"/>
       <c r="G52" s="31"/>
@@ -5435,10 +5456,10 @@
         <v>59</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E53" s="29" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F53" s="31"/>
       <c r="G53" s="31"/>
@@ -5472,10 +5493,10 @@
         <v>59</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E54" s="29" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F54" s="31"/>
       <c r="G54" s="31"/>
@@ -5509,10 +5530,10 @@
         <v>59</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E55" s="29" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F55" s="31"/>
       <c r="G55" s="31"/>
@@ -5546,10 +5567,10 @@
         <v>59</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E56" s="29" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F56" s="31"/>
       <c r="G56" s="31"/>
@@ -5583,10 +5604,10 @@
         <v>59</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E57" s="29" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F57" s="31"/>
       <c r="G57" s="31"/>
@@ -5620,10 +5641,10 @@
         <v>59</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E58" s="29" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F58" s="31"/>
       <c r="G58" s="31"/>
@@ -5657,10 +5678,10 @@
         <v>59</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E59" s="29" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F59" s="31"/>
       <c r="G59" s="31"/>
@@ -5694,10 +5715,10 @@
         <v>59</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E60" s="29" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F60" s="31"/>
       <c r="G60" s="31"/>
@@ -5731,10 +5752,10 @@
         <v>59</v>
       </c>
       <c r="D61" s="28" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E61" s="29" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F61" s="31"/>
       <c r="G61" s="31"/>
@@ -5768,10 +5789,10 @@
         <v>59</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E62" s="29" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F62" s="31"/>
       <c r="G62" s="31"/>
@@ -5805,10 +5826,10 @@
         <v>59</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E63" s="29" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F63" s="31"/>
       <c r="G63" s="31"/>
@@ -5842,10 +5863,10 @@
         <v>59</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E64" s="29" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F64" s="31"/>
       <c r="G64" s="31"/>
@@ -5879,10 +5900,10 @@
         <v>59</v>
       </c>
       <c r="D65" s="28" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E65" s="29" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F65" s="31"/>
       <c r="G65" s="31"/>
@@ -5916,10 +5937,10 @@
         <v>59</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E66" s="29" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F66" s="31"/>
       <c r="G66" s="31"/>
@@ -5953,10 +5974,10 @@
         <v>59</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E67" s="29" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F67" s="31"/>
       <c r="G67" s="31"/>
@@ -5990,10 +6011,10 @@
         <v>59</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E68" s="29" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F68" s="31"/>
       <c r="G68" s="31"/>
@@ -6024,13 +6045,13 @@
         <v>47</v>
       </c>
       <c r="C69" s="35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D69" s="28" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E69" s="29" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F69" s="31"/>
       <c r="G69" s="31"/>
@@ -6061,13 +6082,13 @@
         <v>47</v>
       </c>
       <c r="C70" s="35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E70" s="29" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F70" s="31"/>
       <c r="G70" s="31"/>
@@ -6098,13 +6119,13 @@
         <v>47</v>
       </c>
       <c r="C71" s="35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D71" s="28" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E71" s="29" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F71" s="31"/>
       <c r="G71" s="31"/>
@@ -6135,13 +6156,13 @@
         <v>47</v>
       </c>
       <c r="C72" s="35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D72" s="28" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E72" s="29" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F72" s="31"/>
       <c r="G72" s="31"/>
@@ -6172,13 +6193,13 @@
         <v>47</v>
       </c>
       <c r="C73" s="35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D73" s="28" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E73" s="29" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F73" s="31"/>
       <c r="G73" s="31"/>
@@ -6209,13 +6230,13 @@
         <v>47</v>
       </c>
       <c r="C74" s="35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D74" s="28" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E74" s="29" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F74" s="31"/>
       <c r="G74" s="31"/>
@@ -6246,13 +6267,13 @@
         <v>47</v>
       </c>
       <c r="C75" s="35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E75" s="29" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F75" s="31"/>
       <c r="G75" s="31"/>
@@ -6283,13 +6304,13 @@
         <v>47</v>
       </c>
       <c r="C76" s="35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D76" s="28" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E76" s="29" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F76" s="31"/>
       <c r="G76" s="31"/>
@@ -6320,13 +6341,13 @@
         <v>47</v>
       </c>
       <c r="C77" s="35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D77" s="28" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E77" s="29" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F77" s="31"/>
       <c r="G77" s="31"/>
@@ -6357,13 +6378,13 @@
         <v>47</v>
       </c>
       <c r="C78" s="35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D78" s="28" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E78" s="29" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F78" s="31"/>
       <c r="G78" s="31"/>
@@ -6394,13 +6415,13 @@
         <v>47</v>
       </c>
       <c r="C79" s="35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D79" s="28" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E79" s="29" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F79" s="31"/>
       <c r="G79" s="31"/>
@@ -6431,13 +6452,13 @@
         <v>47</v>
       </c>
       <c r="C80" s="35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D80" s="28" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E80" s="29" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F80" s="31"/>
       <c r="G80" s="31"/>
@@ -6468,13 +6489,13 @@
         <v>47</v>
       </c>
       <c r="C81" s="35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D81" s="28" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E81" s="29" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F81" s="31"/>
       <c r="G81" s="31"/>
@@ -6505,13 +6526,13 @@
         <v>47</v>
       </c>
       <c r="C82" s="35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E82" s="29" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F82" s="31"/>
       <c r="G82" s="31"/>
@@ -6542,13 +6563,13 @@
         <v>47</v>
       </c>
       <c r="C83" s="35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D83" s="28" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E83" s="29" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F83" s="31"/>
       <c r="G83" s="31"/>
@@ -6579,13 +6600,13 @@
         <v>47</v>
       </c>
       <c r="C84" s="35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D84" s="28" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E84" s="29" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F84" s="31"/>
       <c r="G84" s="31"/>
@@ -6616,13 +6637,13 @@
         <v>47</v>
       </c>
       <c r="C85" s="35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D85" s="28" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E85" s="29" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F85" s="31"/>
       <c r="G85" s="31"/>
@@ -6653,13 +6674,13 @@
         <v>47</v>
       </c>
       <c r="C86" s="35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D86" s="28" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E86" s="29" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F86" s="31"/>
       <c r="G86" s="31"/>
@@ -6690,13 +6711,13 @@
         <v>47</v>
       </c>
       <c r="C87" s="35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D87" s="28" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E87" s="29" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F87" s="31"/>
       <c r="G87" s="31"/>
@@ -6727,13 +6748,13 @@
         <v>47</v>
       </c>
       <c r="C88" s="35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D88" s="28" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E88" s="29" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F88" s="31"/>
       <c r="G88" s="31"/>
@@ -6764,13 +6785,13 @@
         <v>47</v>
       </c>
       <c r="C89" s="35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D89" s="28" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E89" s="29" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F89" s="31"/>
       <c r="G89" s="31"/>
@@ -6801,13 +6822,13 @@
         <v>47</v>
       </c>
       <c r="C90" s="35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D90" s="28" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E90" s="29" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F90" s="31"/>
       <c r="G90" s="31"/>
@@ -6838,13 +6859,13 @@
         <v>47</v>
       </c>
       <c r="C91" s="35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D91" s="28" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E91" s="29" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F91" s="31"/>
       <c r="G91" s="31"/>
@@ -6875,13 +6896,13 @@
         <v>47</v>
       </c>
       <c r="C92" s="35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D92" s="28" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E92" s="29" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F92" s="31"/>
       <c r="G92" s="31"/>
@@ -6912,13 +6933,13 @@
         <v>47</v>
       </c>
       <c r="C93" s="35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D93" s="28" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E93" s="29" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F93" s="31"/>
       <c r="G93" s="31"/>
@@ -6949,13 +6970,13 @@
         <v>47</v>
       </c>
       <c r="C94" s="35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D94" s="28" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E94" s="29" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F94" s="31"/>
       <c r="G94" s="31"/>
@@ -6986,13 +7007,13 @@
         <v>47</v>
       </c>
       <c r="C95" s="35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D95" s="28" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E95" s="29" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F95" s="31"/>
       <c r="G95" s="31"/>
@@ -7023,13 +7044,13 @@
         <v>47</v>
       </c>
       <c r="C96" s="35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D96" s="28" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E96" s="29" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F96" s="31"/>
       <c r="G96" s="31"/>
@@ -7060,13 +7081,13 @@
         <v>47</v>
       </c>
       <c r="C97" s="35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D97" s="28" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E97" s="29" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F97" s="31"/>
       <c r="G97" s="31"/>
@@ -7097,13 +7118,13 @@
         <v>47</v>
       </c>
       <c r="C98" s="35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D98" s="28" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E98" s="29" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F98" s="31"/>
       <c r="G98" s="31"/>
@@ -7134,13 +7155,13 @@
         <v>47</v>
       </c>
       <c r="C99" s="35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D99" s="28" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E99" s="29" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F99" s="31"/>
       <c r="G99" s="31"/>
@@ -7171,13 +7192,13 @@
         <v>47</v>
       </c>
       <c r="C100" s="35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D100" s="28" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E100" s="29" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F100" s="31"/>
       <c r="G100" s="31"/>
@@ -7208,13 +7229,13 @@
         <v>47</v>
       </c>
       <c r="C101" s="35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D101" s="28" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E101" s="29" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F101" s="31"/>
       <c r="G101" s="31"/>
@@ -7245,13 +7266,13 @@
         <v>47</v>
       </c>
       <c r="C102" s="35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D102" s="28" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E102" s="29" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F102" s="31"/>
       <c r="G102" s="31"/>
@@ -7282,13 +7303,13 @@
         <v>47</v>
       </c>
       <c r="C103" s="35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D103" s="28" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E103" s="29" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F103" s="31"/>
       <c r="G103" s="31"/>
@@ -7319,13 +7340,13 @@
         <v>47</v>
       </c>
       <c r="C104" s="35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D104" s="28" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E104" s="29" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F104" s="31"/>
       <c r="G104" s="31"/>
@@ -7356,13 +7377,13 @@
         <v>47</v>
       </c>
       <c r="C105" s="35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D105" s="28" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E105" s="29" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F105" s="31"/>
       <c r="G105" s="31"/>
@@ -7393,13 +7414,13 @@
         <v>47</v>
       </c>
       <c r="C106" s="35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D106" s="28" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E106" s="29" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F106" s="31"/>
       <c r="G106" s="31"/>
@@ -7430,13 +7451,13 @@
         <v>47</v>
       </c>
       <c r="C107" s="35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D107" s="28" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E107" s="29" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F107" s="31"/>
       <c r="G107" s="31"/>
@@ -7467,13 +7488,13 @@
         <v>47</v>
       </c>
       <c r="C108" s="35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D108" s="28" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E108" s="29" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F108" s="31"/>
       <c r="G108" s="31"/>
@@ -7504,13 +7525,13 @@
         <v>47</v>
       </c>
       <c r="C109" s="35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D109" s="28" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E109" s="29" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F109" s="31"/>
       <c r="G109" s="31"/>
@@ -7541,13 +7562,13 @@
         <v>47</v>
       </c>
       <c r="C110" s="35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D110" s="28" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E110" s="29" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F110" s="31"/>
       <c r="G110" s="31"/>
@@ -7578,13 +7599,13 @@
         <v>47</v>
       </c>
       <c r="C111" s="35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D111" s="28" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E111" s="29" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F111" s="31"/>
       <c r="G111" s="31"/>
@@ -7615,13 +7636,13 @@
         <v>47</v>
       </c>
       <c r="C112" s="35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D112" s="28" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E112" s="29" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F112" s="31"/>
       <c r="G112" s="31"/>
@@ -7652,13 +7673,13 @@
         <v>47</v>
       </c>
       <c r="C113" s="35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D113" s="28" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E113" s="29" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F113" s="31"/>
       <c r="G113" s="31"/>
@@ -7689,13 +7710,13 @@
         <v>47</v>
       </c>
       <c r="C114" s="35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D114" s="28" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E114" s="29" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F114" s="31"/>
       <c r="G114" s="31"/>
@@ -7726,13 +7747,13 @@
         <v>47</v>
       </c>
       <c r="C115" s="35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D115" s="28" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E115" s="29" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F115" s="31"/>
       <c r="G115" s="31"/>
@@ -7766,16 +7787,18 @@
         <v>61</v>
       </c>
       <c r="D116" s="28" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E116" s="29" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F116" s="31"/>
       <c r="G116" s="31"/>
       <c r="H116" s="31"/>
       <c r="I116" s="37"/>
-      <c r="J116" s="32"/>
+      <c r="J116" s="32" t="s">
+        <v>63</v>
+      </c>
       <c r="K116" s="32"/>
       <c r="L116" s="32"/>
       <c r="M116" s="32"/>
@@ -7803,16 +7826,18 @@
         <v>61</v>
       </c>
       <c r="D117" s="28" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E117" s="29" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F117" s="31"/>
       <c r="G117" s="31"/>
       <c r="H117" s="31"/>
       <c r="I117" s="37"/>
-      <c r="J117" s="32"/>
+      <c r="J117" s="32" t="s">
+        <v>63</v>
+      </c>
       <c r="K117" s="32"/>
       <c r="L117" s="32"/>
       <c r="M117" s="32"/>
@@ -7840,16 +7865,18 @@
         <v>61</v>
       </c>
       <c r="D118" s="28" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E118" s="29" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F118" s="31"/>
       <c r="G118" s="31"/>
       <c r="H118" s="31"/>
       <c r="I118" s="37"/>
-      <c r="J118" s="32"/>
+      <c r="J118" s="32" t="s">
+        <v>63</v>
+      </c>
       <c r="K118" s="32"/>
       <c r="L118" s="32"/>
       <c r="M118" s="32"/>
@@ -7877,16 +7904,18 @@
         <v>61</v>
       </c>
       <c r="D119" s="28" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E119" s="29" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F119" s="31"/>
       <c r="G119" s="31"/>
       <c r="H119" s="31"/>
       <c r="I119" s="37"/>
-      <c r="J119" s="32"/>
+      <c r="J119" s="32" t="s">
+        <v>63</v>
+      </c>
       <c r="K119" s="32"/>
       <c r="L119" s="32"/>
       <c r="M119" s="32"/>
@@ -7914,16 +7943,18 @@
         <v>61</v>
       </c>
       <c r="D120" s="28" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E120" s="29" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F120" s="31"/>
       <c r="G120" s="31"/>
       <c r="H120" s="31"/>
       <c r="I120" s="37"/>
-      <c r="J120" s="32"/>
+      <c r="J120" s="32" t="s">
+        <v>63</v>
+      </c>
       <c r="K120" s="32"/>
       <c r="L120" s="32"/>
       <c r="M120" s="32"/>
@@ -7951,16 +7982,18 @@
         <v>61</v>
       </c>
       <c r="D121" s="28" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E121" s="29" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F121" s="31"/>
       <c r="G121" s="31"/>
       <c r="H121" s="31"/>
       <c r="I121" s="37"/>
-      <c r="J121" s="32"/>
+      <c r="J121" s="32" t="s">
+        <v>63</v>
+      </c>
       <c r="K121" s="32"/>
       <c r="L121" s="32"/>
       <c r="M121" s="32"/>
@@ -7988,16 +8021,18 @@
         <v>61</v>
       </c>
       <c r="D122" s="28" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E122" s="29" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F122" s="31"/>
       <c r="G122" s="31"/>
       <c r="H122" s="31"/>
       <c r="I122" s="37"/>
-      <c r="J122" s="32"/>
+      <c r="J122" s="32" t="s">
+        <v>63</v>
+      </c>
       <c r="K122" s="32"/>
       <c r="L122" s="32"/>
       <c r="M122" s="32"/>
@@ -8025,16 +8060,18 @@
         <v>61</v>
       </c>
       <c r="D123" s="28" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E123" s="29" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F123" s="31"/>
       <c r="G123" s="31"/>
       <c r="H123" s="31"/>
       <c r="I123" s="37"/>
-      <c r="J123" s="32"/>
+      <c r="J123" s="32" t="s">
+        <v>63</v>
+      </c>
       <c r="K123" s="32"/>
       <c r="L123" s="32"/>
       <c r="M123" s="32"/>
@@ -8062,16 +8099,18 @@
         <v>61</v>
       </c>
       <c r="D124" s="28" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E124" s="29" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F124" s="31"/>
       <c r="G124" s="31"/>
       <c r="H124" s="31"/>
       <c r="I124" s="37"/>
-      <c r="J124" s="32"/>
+      <c r="J124" s="32" t="s">
+        <v>63</v>
+      </c>
       <c r="K124" s="32"/>
       <c r="L124" s="32"/>
       <c r="M124" s="32"/>
@@ -8099,16 +8138,18 @@
         <v>61</v>
       </c>
       <c r="D125" s="28" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E125" s="29" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F125" s="31"/>
       <c r="G125" s="31"/>
       <c r="H125" s="31"/>
       <c r="I125" s="37"/>
-      <c r="J125" s="32"/>
+      <c r="J125" s="32" t="s">
+        <v>63</v>
+      </c>
       <c r="K125" s="32"/>
       <c r="L125" s="32"/>
       <c r="M125" s="32"/>
@@ -8136,16 +8177,18 @@
         <v>61</v>
       </c>
       <c r="D126" s="28" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E126" s="29" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F126" s="31"/>
       <c r="G126" s="31"/>
       <c r="H126" s="31"/>
       <c r="I126" s="37"/>
-      <c r="J126" s="32"/>
+      <c r="J126" s="32" t="s">
+        <v>63</v>
+      </c>
       <c r="K126" s="32"/>
       <c r="L126" s="32"/>
       <c r="M126" s="32"/>
@@ -8173,16 +8216,18 @@
         <v>61</v>
       </c>
       <c r="D127" s="28" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E127" s="29" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F127" s="31"/>
       <c r="G127" s="31"/>
       <c r="H127" s="31"/>
       <c r="I127" s="37"/>
-      <c r="J127" s="32"/>
+      <c r="J127" s="32" t="s">
+        <v>63</v>
+      </c>
       <c r="K127" s="32"/>
       <c r="L127" s="32"/>
       <c r="M127" s="32"/>
@@ -8210,16 +8255,18 @@
         <v>61</v>
       </c>
       <c r="D128" s="28" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E128" s="29" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F128" s="31"/>
       <c r="G128" s="31"/>
       <c r="H128" s="31"/>
       <c r="I128" s="37"/>
-      <c r="J128" s="32"/>
+      <c r="J128" s="32" t="s">
+        <v>63</v>
+      </c>
       <c r="K128" s="32"/>
       <c r="L128" s="32"/>
       <c r="M128" s="32"/>
@@ -8247,16 +8294,18 @@
         <v>61</v>
       </c>
       <c r="D129" s="28" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E129" s="29" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F129" s="31"/>
       <c r="G129" s="31"/>
       <c r="H129" s="31"/>
       <c r="I129" s="37"/>
-      <c r="J129" s="32"/>
+      <c r="J129" s="32" t="s">
+        <v>63</v>
+      </c>
       <c r="K129" s="32"/>
       <c r="L129" s="32"/>
       <c r="M129" s="32"/>
@@ -8284,16 +8333,18 @@
         <v>61</v>
       </c>
       <c r="D130" s="28" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E130" s="29" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F130" s="31"/>
       <c r="G130" s="31"/>
       <c r="H130" s="31"/>
       <c r="I130" s="37"/>
-      <c r="J130" s="32"/>
+      <c r="J130" s="32" t="s">
+        <v>63</v>
+      </c>
       <c r="K130" s="32"/>
       <c r="L130" s="32"/>
       <c r="M130" s="32"/>
@@ -8321,10 +8372,10 @@
         <v>57</v>
       </c>
       <c r="D131" s="28" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E131" s="29" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F131" s="31"/>
       <c r="G131" s="31"/>
@@ -8358,10 +8409,10 @@
         <v>57</v>
       </c>
       <c r="D132" s="28" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E132" s="29" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F132" s="31"/>
       <c r="G132" s="31"/>
@@ -8395,10 +8446,10 @@
         <v>57</v>
       </c>
       <c r="D133" s="28" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E133" s="29" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F133" s="31"/>
       <c r="G133" s="31"/>
@@ -8432,10 +8483,10 @@
         <v>57</v>
       </c>
       <c r="D134" s="28" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E134" s="29" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F134" s="31"/>
       <c r="G134" s="31"/>
@@ -8469,10 +8520,10 @@
         <v>57</v>
       </c>
       <c r="D135" s="28" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E135" s="29" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F135" s="31"/>
       <c r="G135" s="31"/>
@@ -8506,10 +8557,10 @@
         <v>57</v>
       </c>
       <c r="D136" s="28" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E136" s="29" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F136" s="31"/>
       <c r="G136" s="31"/>
@@ -8543,10 +8594,10 @@
         <v>57</v>
       </c>
       <c r="D137" s="28" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E137" s="29" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F137" s="31"/>
       <c r="G137" s="31"/>
@@ -8580,10 +8631,10 @@
         <v>57</v>
       </c>
       <c r="D138" s="28" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E138" s="29" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F138" s="31"/>
       <c r="G138" s="31"/>
@@ -8617,10 +8668,10 @@
         <v>57</v>
       </c>
       <c r="D139" s="28" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E139" s="29" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F139" s="31"/>
       <c r="G139" s="31"/>
@@ -8654,10 +8705,10 @@
         <v>57</v>
       </c>
       <c r="D140" s="28" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E140" s="29" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F140" s="31"/>
       <c r="G140" s="31"/>
@@ -8691,10 +8742,10 @@
         <v>57</v>
       </c>
       <c r="D141" s="28" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E141" s="29" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F141" s="31"/>
       <c r="G141" s="31"/>
@@ -8728,10 +8779,10 @@
         <v>57</v>
       </c>
       <c r="D142" s="28" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E142" s="29" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F142" s="31"/>
       <c r="G142" s="31"/>
@@ -8765,10 +8816,10 @@
         <v>57</v>
       </c>
       <c r="D143" s="28" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E143" s="29" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F143" s="31"/>
       <c r="G143" s="31"/>
@@ -8802,10 +8853,10 @@
         <v>57</v>
       </c>
       <c r="D144" s="28" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E144" s="29" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F144" s="31"/>
       <c r="G144" s="31"/>
@@ -8839,10 +8890,10 @@
         <v>57</v>
       </c>
       <c r="D145" s="28" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E145" s="29" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F145" s="31"/>
       <c r="G145" s="31"/>
@@ -8876,10 +8927,10 @@
         <v>48</v>
       </c>
       <c r="D146" s="28" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E146" s="29" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F146" s="31"/>
       <c r="G146" s="31"/>
@@ -8913,10 +8964,10 @@
         <v>48</v>
       </c>
       <c r="D147" s="28" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E147" s="29" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F147" s="31"/>
       <c r="G147" s="31"/>
@@ -8947,13 +8998,13 @@
         <v>47</v>
       </c>
       <c r="C148" s="35" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D148" s="28" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E148" s="29" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F148" s="31"/>
       <c r="G148" s="31"/>
@@ -8984,13 +9035,13 @@
         <v>47</v>
       </c>
       <c r="C149" s="35" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D149" s="28" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E149" s="29" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F149" s="31"/>
       <c r="G149" s="31"/>
@@ -9021,13 +9072,13 @@
         <v>47</v>
       </c>
       <c r="C150" s="35" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D150" s="28" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E150" s="29" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F150" s="31"/>
       <c r="G150" s="31"/>
@@ -9058,10 +9109,10 @@
         <v>47</v>
       </c>
       <c r="C151" s="35" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D151" s="28" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E151" s="36" t="s">
         <v>53</v>
@@ -9095,13 +9146,13 @@
         <v>47</v>
       </c>
       <c r="C152" s="35" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D152" s="28" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E152" s="36" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F152" s="31"/>
       <c r="G152" s="31"/>
@@ -9132,13 +9183,13 @@
         <v>47</v>
       </c>
       <c r="C153" s="35" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D153" s="28" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E153" s="29" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F153" s="31"/>
       <c r="G153" s="31"/>
@@ -9169,13 +9220,13 @@
         <v>47</v>
       </c>
       <c r="C154" s="35" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D154" s="28" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E154" s="29" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F154" s="31"/>
       <c r="G154" s="31"/>
@@ -9206,13 +9257,13 @@
         <v>47</v>
       </c>
       <c r="C155" s="35" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D155" s="28" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E155" s="29" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F155" s="31"/>
       <c r="G155" s="31"/>
@@ -9243,13 +9294,13 @@
         <v>47</v>
       </c>
       <c r="C156" s="35" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D156" s="28" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E156" s="29" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F156" s="31"/>
       <c r="G156" s="31"/>
@@ -9280,13 +9331,13 @@
         <v>47</v>
       </c>
       <c r="C157" s="35" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D157" s="28" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E157" s="29" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F157" s="31"/>
       <c r="G157" s="31"/>
@@ -9317,13 +9368,13 @@
         <v>47</v>
       </c>
       <c r="C158" s="35" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D158" s="28" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E158" s="29" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F158" s="31"/>
       <c r="G158" s="31"/>
@@ -9354,13 +9405,13 @@
         <v>47</v>
       </c>
       <c r="C159" s="35" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D159" s="28" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E159" s="29" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F159" s="31"/>
       <c r="G159" s="31"/>
@@ -9391,13 +9442,13 @@
         <v>47</v>
       </c>
       <c r="C160" s="35" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D160" s="28" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E160" s="29" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F160" s="31"/>
       <c r="G160" s="31"/>
@@ -9428,13 +9479,13 @@
         <v>47</v>
       </c>
       <c r="C161" s="35" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D161" s="28" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E161" s="29" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F161" s="31"/>
       <c r="G161" s="31"/>
@@ -9465,13 +9516,13 @@
         <v>47</v>
       </c>
       <c r="C162" s="35" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D162" s="28" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E162" s="29" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F162" s="31"/>
       <c r="G162" s="31"/>
@@ -9502,13 +9553,13 @@
         <v>47</v>
       </c>
       <c r="C163" s="35" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D163" s="28" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E163" s="29" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F163" s="31"/>
       <c r="G163" s="31"/>
@@ -9542,10 +9593,10 @@
         <v>57</v>
       </c>
       <c r="D164" s="28" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E164" s="29" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F164" s="31"/>
       <c r="G164" s="31"/>
@@ -9579,10 +9630,10 @@
         <v>57</v>
       </c>
       <c r="D165" s="28" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E165" s="29" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F165" s="31"/>
       <c r="G165" s="31"/>
@@ -9616,25 +9667,25 @@
         <v>61</v>
       </c>
       <c r="D166" s="28" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E166" s="29" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F166" s="31" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G166" s="38" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H166" s="39" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="I166" s="39" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="J166" s="32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K166" s="32"/>
       <c r="L166" s="32"/>
@@ -9663,25 +9714,25 @@
         <v>61</v>
       </c>
       <c r="D167" s="28" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E167" s="29" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F167" s="31" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G167" s="31" t="n">
         <v>45926.4242632467</v>
       </c>
       <c r="H167" s="31" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="I167" s="37" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="J167" s="32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K167" s="32"/>
       <c r="L167" s="32"/>
@@ -9710,10 +9761,10 @@
         <v>55</v>
       </c>
       <c r="D168" s="28" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E168" s="29" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F168" s="31"/>
       <c r="G168" s="31"/>
@@ -9747,10 +9798,10 @@
         <v>55</v>
       </c>
       <c r="D169" s="28" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E169" s="29" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F169" s="31"/>
       <c r="G169" s="31"/>
@@ -9784,10 +9835,10 @@
         <v>48</v>
       </c>
       <c r="D170" s="28" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E170" s="29" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F170" s="31"/>
       <c r="G170" s="31"/>
@@ -9818,13 +9869,13 @@
         <v>47</v>
       </c>
       <c r="C171" s="35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D171" s="28" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E171" s="29" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F171" s="31"/>
       <c r="G171" s="31"/>
@@ -9855,13 +9906,13 @@
         <v>47</v>
       </c>
       <c r="C172" s="35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D172" s="28" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E172" s="29" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F172" s="31"/>
       <c r="G172" s="31"/>
@@ -9892,13 +9943,13 @@
         <v>47</v>
       </c>
       <c r="C173" s="35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D173" s="28" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E173" s="29" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F173" s="31"/>
       <c r="G173" s="31"/>
@@ -9929,13 +9980,13 @@
         <v>47</v>
       </c>
       <c r="C174" s="35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D174" s="28" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E174" s="29" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F174" s="31"/>
       <c r="G174" s="31"/>
@@ -9966,13 +10017,13 @@
         <v>47</v>
       </c>
       <c r="C175" s="35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D175" s="28" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E175" s="29" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F175" s="31"/>
       <c r="G175" s="31"/>
@@ -10003,13 +10054,13 @@
         <v>47</v>
       </c>
       <c r="C176" s="35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D176" s="28" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E176" s="29" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F176" s="31"/>
       <c r="G176" s="31"/>
@@ -10040,13 +10091,13 @@
         <v>47</v>
       </c>
       <c r="C177" s="35" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D177" s="28" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E177" s="29" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F177" s="31"/>
       <c r="G177" s="31"/>
@@ -10080,16 +10131,18 @@
         <v>61</v>
       </c>
       <c r="D178" s="28" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E178" s="29" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F178" s="28"/>
       <c r="G178" s="28"/>
       <c r="H178" s="28"/>
       <c r="I178" s="28"/>
-      <c r="J178" s="32"/>
+      <c r="J178" s="32" t="s">
+        <v>63</v>
+      </c>
       <c r="K178" s="32"/>
       <c r="L178" s="28"/>
       <c r="M178" s="32"/>
@@ -10117,10 +10170,10 @@
         <v>59</v>
       </c>
       <c r="D179" s="28" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E179" s="29" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F179" s="28"/>
       <c r="G179" s="28"/>
@@ -10151,13 +10204,13 @@
         <v>47</v>
       </c>
       <c r="C180" s="35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D180" s="28" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E180" s="29" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F180" s="28"/>
       <c r="G180" s="28"/>
@@ -10188,13 +10241,13 @@
         <v>47</v>
       </c>
       <c r="C181" s="35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D181" s="28" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E181" s="29" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F181" s="28"/>
       <c r="G181" s="28"/>
@@ -10225,13 +10278,13 @@
         <v>47</v>
       </c>
       <c r="C182" s="35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D182" s="28" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E182" s="29" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F182" s="28"/>
       <c r="G182" s="28"/>
@@ -10265,10 +10318,10 @@
         <v>48</v>
       </c>
       <c r="D183" s="28" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E183" s="29" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F183" s="28"/>
       <c r="G183" s="28"/>
@@ -10302,10 +10355,10 @@
         <v>55</v>
       </c>
       <c r="D184" s="28" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E184" s="29" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F184" s="28"/>
       <c r="G184" s="28"/>
@@ -10339,16 +10392,18 @@
         <v>61</v>
       </c>
       <c r="D185" s="28" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E185" s="29" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F185" s="28"/>
       <c r="G185" s="28"/>
       <c r="H185" s="28"/>
       <c r="I185" s="28"/>
-      <c r="J185" s="32"/>
+      <c r="J185" s="32" t="s">
+        <v>63</v>
+      </c>
       <c r="K185" s="32"/>
       <c r="L185" s="28"/>
       <c r="M185" s="32"/>
@@ -10376,10 +10431,10 @@
         <v>57</v>
       </c>
       <c r="D186" s="28" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E186" s="29" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F186" s="28"/>
       <c r="G186" s="28"/>
@@ -10410,13 +10465,13 @@
         <v>47</v>
       </c>
       <c r="C187" s="35" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D187" s="28" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E187" s="29" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F187" s="28"/>
       <c r="G187" s="28"/>
@@ -10450,10 +10505,10 @@
         <v>59</v>
       </c>
       <c r="D188" s="28" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E188" s="29" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F188" s="31"/>
       <c r="G188" s="31"/>
@@ -10487,10 +10542,10 @@
         <v>59</v>
       </c>
       <c r="D189" s="28" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E189" s="29" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F189" s="31"/>
       <c r="G189" s="31"/>
@@ -10524,10 +10579,10 @@
         <v>48</v>
       </c>
       <c r="D190" s="35" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E190" s="29" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F190" s="31"/>
       <c r="G190" s="31"/>
@@ -10561,10 +10616,10 @@
         <v>59</v>
       </c>
       <c r="D191" s="28" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E191" s="29" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F191" s="31"/>
       <c r="G191" s="31"/>
@@ -10598,16 +10653,18 @@
         <v>61</v>
       </c>
       <c r="D192" s="28" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E192" s="29" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F192" s="31"/>
       <c r="G192" s="31"/>
       <c r="H192" s="31"/>
       <c r="I192" s="37"/>
-      <c r="J192" s="32"/>
+      <c r="J192" s="32" t="s">
+        <v>63</v>
+      </c>
       <c r="K192" s="32"/>
       <c r="L192" s="32"/>
       <c r="M192" s="32"/>
@@ -14688,46 +14745,46 @@
       <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -14754,7 +14811,7 @@
       <selection pane="bottomLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.45703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.82"/>
@@ -14767,22 +14824,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G1" s="41" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14790,13 +14847,13 @@
         <v>48</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D2" s="44" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14804,13 +14861,13 @@
         <v>55</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14818,55 +14875,55 @@
         <v>59</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="42" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="42" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14874,13 +14931,13 @@
         <v>61</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14888,41 +14945,41 @@
         <v>57</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="42" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="42" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D11" s="45" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15902,7 +15959,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.45703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.17"/>
@@ -15919,18 +15976,18 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="48" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="48" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>446</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/GATEWAY/A1#111#GMCSRLXX/Ginevra_Media_Communication/GMC-Medical/1.0.0/accreditamento-checklist_V8.2.6.1.xlsx
+++ b/GATEWAY/A1#111#GMCSRLXX/Ginevra_Media_Communication/GMC-Medical/1.0.0/accreditamento-checklist_V8.2.6.1.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="448">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -379,6 +379,9 @@
     <t xml:space="preserve">NO</t>
   </si>
   <si>
+    <t xml:space="preserve">L’applicativo effettua controlli preventivi sul dato inserito</t>
+  </si>
+  <si>
     <t xml:space="preserve">CERT_VAC</t>
   </si>
   <si>
@@ -1647,9 +1650,6 @@
   </si>
   <si>
     <t xml:space="preserve">Campo valorizzabile tramite selezione da un set di valori ammessi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L’applicativo effettua controlli preventivi sul dato inserito</t>
   </si>
   <si>
     <t xml:space="preserve">Altro (specificare)</t>
@@ -2368,7 +2368,7 @@
       <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="130.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="0" width="8.82"/>
@@ -2455,7 +2455,7 @@
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="194.18"/>
@@ -3529,14 +3529,14 @@
   <dimension ref="A1:W752"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="K10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="J166" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="S31" activeCellId="0" sqref="S31"/>
+      <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="A166" activeCellId="0" sqref="A166"/>
+      <selection pane="bottomRight" activeCell="K192" activeCellId="0" sqref="K192"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.83"/>
@@ -4028,7 +4028,9 @@
       <c r="J15" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="K15" s="32"/>
+      <c r="K15" s="32" t="s">
+        <v>64</v>
+      </c>
       <c r="L15" s="32"/>
       <c r="M15" s="32"/>
       <c r="N15" s="32"/>
@@ -4052,10 +4054,10 @@
         <v>47</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E16" s="36" t="s">
         <v>53</v>
@@ -4089,10 +4091,10 @@
         <v>47</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E17" s="36" t="s">
         <v>53</v>
@@ -4126,10 +4128,10 @@
         <v>47</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E18" s="36" t="s">
         <v>53</v>
@@ -4166,10 +4168,10 @@
         <v>48</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E19" s="36" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F19" s="31"/>
       <c r="G19" s="31"/>
@@ -4203,10 +4205,10 @@
         <v>55</v>
       </c>
       <c r="D20" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="36" t="s">
         <v>72</v>
-      </c>
-      <c r="E20" s="36" t="s">
-        <v>71</v>
       </c>
       <c r="F20" s="31"/>
       <c r="G20" s="31"/>
@@ -4240,10 +4242,10 @@
         <v>57</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F21" s="31"/>
       <c r="G21" s="31"/>
@@ -4277,10 +4279,10 @@
         <v>59</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F22" s="31"/>
       <c r="G22" s="31"/>
@@ -4314,10 +4316,10 @@
         <v>61</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F23" s="31"/>
       <c r="G23" s="31"/>
@@ -4326,7 +4328,9 @@
       <c r="J23" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="K23" s="32"/>
+      <c r="K23" s="32" t="s">
+        <v>64</v>
+      </c>
       <c r="L23" s="32"/>
       <c r="M23" s="32"/>
       <c r="N23" s="32"/>
@@ -4350,13 +4354,13 @@
         <v>47</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F24" s="31"/>
       <c r="G24" s="31"/>
@@ -4387,13 +4391,13 @@
         <v>47</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F25" s="31"/>
       <c r="G25" s="31"/>
@@ -4424,13 +4428,13 @@
         <v>47</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F26" s="31"/>
       <c r="G26" s="31"/>
@@ -4464,10 +4468,10 @@
         <v>48</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F27" s="31"/>
       <c r="G27" s="31"/>
@@ -4485,7 +4489,7 @@
       <c r="S27" s="32"/>
       <c r="T27" s="32"/>
       <c r="U27" s="33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V27" s="34"/>
       <c r="W27" s="32" t="s">
@@ -4503,10 +4507,10 @@
         <v>55</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F28" s="31"/>
       <c r="G28" s="31"/>
@@ -4524,7 +4528,7 @@
       <c r="S28" s="32"/>
       <c r="T28" s="32"/>
       <c r="U28" s="33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V28" s="34"/>
       <c r="W28" s="32" t="s">
@@ -4542,10 +4546,10 @@
         <v>57</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F29" s="31"/>
       <c r="G29" s="31"/>
@@ -4563,7 +4567,7 @@
       <c r="S29" s="32"/>
       <c r="T29" s="32"/>
       <c r="U29" s="33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V29" s="34"/>
       <c r="W29" s="32" t="s">
@@ -4581,10 +4585,10 @@
         <v>59</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F30" s="31"/>
       <c r="G30" s="31"/>
@@ -4602,7 +4606,7 @@
       <c r="S30" s="32"/>
       <c r="T30" s="32"/>
       <c r="U30" s="33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V30" s="34"/>
       <c r="W30" s="32" t="s">
@@ -4620,10 +4624,10 @@
         <v>61</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F31" s="31"/>
       <c r="G31" s="31"/>
@@ -4632,13 +4636,15 @@
       <c r="J31" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="K31" s="32"/>
+      <c r="K31" s="32" t="s">
+        <v>64</v>
+      </c>
       <c r="L31" s="32"/>
       <c r="M31" s="32" t="s">
         <v>63</v>
       </c>
       <c r="N31" s="32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O31" s="32"/>
       <c r="P31" s="32" t="s">
@@ -4648,14 +4654,14 @@
         <v>63</v>
       </c>
       <c r="R31" s="32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S31" s="32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T31" s="32"/>
       <c r="U31" s="33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V31" s="34"/>
       <c r="W31" s="32" t="s">
@@ -4670,13 +4676,13 @@
         <v>47</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F32" s="31"/>
       <c r="G32" s="31"/>
@@ -4694,7 +4700,7 @@
       <c r="S32" s="32"/>
       <c r="T32" s="32"/>
       <c r="U32" s="33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V32" s="34"/>
       <c r="W32" s="32" t="s">
@@ -4709,13 +4715,13 @@
         <v>47</v>
       </c>
       <c r="C33" s="35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F33" s="31"/>
       <c r="G33" s="31"/>
@@ -4733,7 +4739,7 @@
       <c r="S33" s="32"/>
       <c r="T33" s="32"/>
       <c r="U33" s="33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V33" s="34"/>
       <c r="W33" s="32" t="s">
@@ -4748,13 +4754,13 @@
         <v>47</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F34" s="31"/>
       <c r="G34" s="31"/>
@@ -4772,7 +4778,7 @@
       <c r="S34" s="32"/>
       <c r="T34" s="32"/>
       <c r="U34" s="33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V34" s="34"/>
       <c r="W34" s="32" t="s">
@@ -4790,10 +4796,10 @@
         <v>48</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F35" s="31"/>
       <c r="G35" s="31"/>
@@ -4827,10 +4833,10 @@
         <v>48</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F36" s="31"/>
       <c r="G36" s="31"/>
@@ -4864,10 +4870,10 @@
         <v>48</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F37" s="31"/>
       <c r="G37" s="31"/>
@@ -4901,10 +4907,10 @@
         <v>48</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F38" s="31"/>
       <c r="G38" s="31"/>
@@ -4938,10 +4944,10 @@
         <v>48</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F39" s="31"/>
       <c r="G39" s="31"/>
@@ -4975,10 +4981,10 @@
         <v>48</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F40" s="31"/>
       <c r="G40" s="31"/>
@@ -5012,10 +5018,10 @@
         <v>48</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F41" s="31"/>
       <c r="G41" s="31"/>
@@ -5049,10 +5055,10 @@
         <v>48</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E42" s="29" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F42" s="31"/>
       <c r="G42" s="31"/>
@@ -5086,10 +5092,10 @@
         <v>55</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E43" s="29" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F43" s="31"/>
       <c r="G43" s="31"/>
@@ -5123,10 +5129,10 @@
         <v>55</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E44" s="29" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F44" s="31"/>
       <c r="G44" s="31"/>
@@ -5160,10 +5166,10 @@
         <v>55</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E45" s="29" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F45" s="31"/>
       <c r="G45" s="31"/>
@@ -5197,10 +5203,10 @@
         <v>55</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E46" s="29" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F46" s="31"/>
       <c r="G46" s="31"/>
@@ -5234,10 +5240,10 @@
         <v>55</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E47" s="29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F47" s="31"/>
       <c r="G47" s="31"/>
@@ -5271,10 +5277,10 @@
         <v>55</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E48" s="29" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F48" s="31"/>
       <c r="G48" s="31"/>
@@ -5308,10 +5314,10 @@
         <v>55</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E49" s="29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F49" s="31"/>
       <c r="G49" s="31"/>
@@ -5345,10 +5351,10 @@
         <v>55</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E50" s="29" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F50" s="31"/>
       <c r="G50" s="31"/>
@@ -5382,10 +5388,10 @@
         <v>55</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E51" s="29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F51" s="31"/>
       <c r="G51" s="31"/>
@@ -5419,10 +5425,10 @@
         <v>55</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E52" s="29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F52" s="31"/>
       <c r="G52" s="31"/>
@@ -5456,10 +5462,10 @@
         <v>59</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E53" s="29" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F53" s="31"/>
       <c r="G53" s="31"/>
@@ -5493,10 +5499,10 @@
         <v>59</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E54" s="29" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F54" s="31"/>
       <c r="G54" s="31"/>
@@ -5530,10 +5536,10 @@
         <v>59</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E55" s="29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F55" s="31"/>
       <c r="G55" s="31"/>
@@ -5567,10 +5573,10 @@
         <v>59</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E56" s="29" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F56" s="31"/>
       <c r="G56" s="31"/>
@@ -5604,10 +5610,10 @@
         <v>59</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E57" s="29" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F57" s="31"/>
       <c r="G57" s="31"/>
@@ -5641,10 +5647,10 @@
         <v>59</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E58" s="29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F58" s="31"/>
       <c r="G58" s="31"/>
@@ -5678,10 +5684,10 @@
         <v>59</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E59" s="29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F59" s="31"/>
       <c r="G59" s="31"/>
@@ -5715,10 +5721,10 @@
         <v>59</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E60" s="29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F60" s="31"/>
       <c r="G60" s="31"/>
@@ -5752,10 +5758,10 @@
         <v>59</v>
       </c>
       <c r="D61" s="28" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E61" s="29" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F61" s="31"/>
       <c r="G61" s="31"/>
@@ -5789,10 +5795,10 @@
         <v>59</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E62" s="29" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F62" s="31"/>
       <c r="G62" s="31"/>
@@ -5826,10 +5832,10 @@
         <v>59</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E63" s="29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F63" s="31"/>
       <c r="G63" s="31"/>
@@ -5863,10 +5869,10 @@
         <v>59</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E64" s="29" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F64" s="31"/>
       <c r="G64" s="31"/>
@@ -5900,10 +5906,10 @@
         <v>59</v>
       </c>
       <c r="D65" s="28" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E65" s="29" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F65" s="31"/>
       <c r="G65" s="31"/>
@@ -5937,10 +5943,10 @@
         <v>59</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E66" s="29" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F66" s="31"/>
       <c r="G66" s="31"/>
@@ -5974,10 +5980,10 @@
         <v>59</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E67" s="29" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F67" s="31"/>
       <c r="G67" s="31"/>
@@ -6011,10 +6017,10 @@
         <v>59</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E68" s="29" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F68" s="31"/>
       <c r="G68" s="31"/>
@@ -6045,13 +6051,13 @@
         <v>47</v>
       </c>
       <c r="C69" s="35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D69" s="28" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E69" s="29" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F69" s="31"/>
       <c r="G69" s="31"/>
@@ -6082,13 +6088,13 @@
         <v>47</v>
       </c>
       <c r="C70" s="35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E70" s="29" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F70" s="31"/>
       <c r="G70" s="31"/>
@@ -6119,13 +6125,13 @@
         <v>47</v>
       </c>
       <c r="C71" s="35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D71" s="28" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E71" s="29" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F71" s="31"/>
       <c r="G71" s="31"/>
@@ -6156,13 +6162,13 @@
         <v>47</v>
       </c>
       <c r="C72" s="35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D72" s="28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E72" s="29" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F72" s="31"/>
       <c r="G72" s="31"/>
@@ -6193,13 +6199,13 @@
         <v>47</v>
       </c>
       <c r="C73" s="35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D73" s="28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E73" s="29" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F73" s="31"/>
       <c r="G73" s="31"/>
@@ -6230,13 +6236,13 @@
         <v>47</v>
       </c>
       <c r="C74" s="35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D74" s="28" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E74" s="29" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F74" s="31"/>
       <c r="G74" s="31"/>
@@ -6267,13 +6273,13 @@
         <v>47</v>
       </c>
       <c r="C75" s="35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E75" s="29" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F75" s="31"/>
       <c r="G75" s="31"/>
@@ -6304,13 +6310,13 @@
         <v>47</v>
       </c>
       <c r="C76" s="35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D76" s="28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E76" s="29" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F76" s="31"/>
       <c r="G76" s="31"/>
@@ -6341,13 +6347,13 @@
         <v>47</v>
       </c>
       <c r="C77" s="35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D77" s="28" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E77" s="29" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F77" s="31"/>
       <c r="G77" s="31"/>
@@ -6378,13 +6384,13 @@
         <v>47</v>
       </c>
       <c r="C78" s="35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D78" s="28" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E78" s="29" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F78" s="31"/>
       <c r="G78" s="31"/>
@@ -6415,13 +6421,13 @@
         <v>47</v>
       </c>
       <c r="C79" s="35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D79" s="28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E79" s="29" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F79" s="31"/>
       <c r="G79" s="31"/>
@@ -6452,13 +6458,13 @@
         <v>47</v>
       </c>
       <c r="C80" s="35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D80" s="28" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E80" s="29" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F80" s="31"/>
       <c r="G80" s="31"/>
@@ -6489,13 +6495,13 @@
         <v>47</v>
       </c>
       <c r="C81" s="35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D81" s="28" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E81" s="29" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F81" s="31"/>
       <c r="G81" s="31"/>
@@ -6526,13 +6532,13 @@
         <v>47</v>
       </c>
       <c r="C82" s="35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E82" s="29" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F82" s="31"/>
       <c r="G82" s="31"/>
@@ -6563,13 +6569,13 @@
         <v>47</v>
       </c>
       <c r="C83" s="35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D83" s="28" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E83" s="29" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F83" s="31"/>
       <c r="G83" s="31"/>
@@ -6600,13 +6606,13 @@
         <v>47</v>
       </c>
       <c r="C84" s="35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D84" s="28" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E84" s="29" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F84" s="31"/>
       <c r="G84" s="31"/>
@@ -6637,13 +6643,13 @@
         <v>47</v>
       </c>
       <c r="C85" s="35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D85" s="28" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E85" s="29" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F85" s="31"/>
       <c r="G85" s="31"/>
@@ -6674,13 +6680,13 @@
         <v>47</v>
       </c>
       <c r="C86" s="35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D86" s="28" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E86" s="29" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F86" s="31"/>
       <c r="G86" s="31"/>
@@ -6711,13 +6717,13 @@
         <v>47</v>
       </c>
       <c r="C87" s="35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D87" s="28" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E87" s="29" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F87" s="31"/>
       <c r="G87" s="31"/>
@@ -6748,13 +6754,13 @@
         <v>47</v>
       </c>
       <c r="C88" s="35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D88" s="28" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E88" s="29" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F88" s="31"/>
       <c r="G88" s="31"/>
@@ -6785,13 +6791,13 @@
         <v>47</v>
       </c>
       <c r="C89" s="35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D89" s="28" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E89" s="29" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F89" s="31"/>
       <c r="G89" s="31"/>
@@ -6822,13 +6828,13 @@
         <v>47</v>
       </c>
       <c r="C90" s="35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D90" s="28" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E90" s="29" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F90" s="31"/>
       <c r="G90" s="31"/>
@@ -6859,13 +6865,13 @@
         <v>47</v>
       </c>
       <c r="C91" s="35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D91" s="28" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E91" s="29" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F91" s="31"/>
       <c r="G91" s="31"/>
@@ -6896,13 +6902,13 @@
         <v>47</v>
       </c>
       <c r="C92" s="35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D92" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E92" s="29" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F92" s="31"/>
       <c r="G92" s="31"/>
@@ -6933,13 +6939,13 @@
         <v>47</v>
       </c>
       <c r="C93" s="35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D93" s="28" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E93" s="29" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F93" s="31"/>
       <c r="G93" s="31"/>
@@ -6970,13 +6976,13 @@
         <v>47</v>
       </c>
       <c r="C94" s="35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D94" s="28" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E94" s="29" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F94" s="31"/>
       <c r="G94" s="31"/>
@@ -7007,13 +7013,13 @@
         <v>47</v>
       </c>
       <c r="C95" s="35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D95" s="28" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E95" s="29" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F95" s="31"/>
       <c r="G95" s="31"/>
@@ -7044,13 +7050,13 @@
         <v>47</v>
       </c>
       <c r="C96" s="35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D96" s="28" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E96" s="29" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F96" s="31"/>
       <c r="G96" s="31"/>
@@ -7081,13 +7087,13 @@
         <v>47</v>
       </c>
       <c r="C97" s="35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D97" s="28" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E97" s="29" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F97" s="31"/>
       <c r="G97" s="31"/>
@@ -7118,13 +7124,13 @@
         <v>47</v>
       </c>
       <c r="C98" s="35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D98" s="28" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E98" s="29" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F98" s="31"/>
       <c r="G98" s="31"/>
@@ -7155,13 +7161,13 @@
         <v>47</v>
       </c>
       <c r="C99" s="35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D99" s="28" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E99" s="29" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F99" s="31"/>
       <c r="G99" s="31"/>
@@ -7192,13 +7198,13 @@
         <v>47</v>
       </c>
       <c r="C100" s="35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D100" s="28" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E100" s="29" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F100" s="31"/>
       <c r="G100" s="31"/>
@@ -7229,13 +7235,13 @@
         <v>47</v>
       </c>
       <c r="C101" s="35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D101" s="28" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E101" s="29" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F101" s="31"/>
       <c r="G101" s="31"/>
@@ -7266,13 +7272,13 @@
         <v>47</v>
       </c>
       <c r="C102" s="35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D102" s="28" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E102" s="29" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F102" s="31"/>
       <c r="G102" s="31"/>
@@ -7303,13 +7309,13 @@
         <v>47</v>
       </c>
       <c r="C103" s="35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D103" s="28" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E103" s="29" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F103" s="31"/>
       <c r="G103" s="31"/>
@@ -7340,13 +7346,13 @@
         <v>47</v>
       </c>
       <c r="C104" s="35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D104" s="28" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E104" s="29" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F104" s="31"/>
       <c r="G104" s="31"/>
@@ -7377,13 +7383,13 @@
         <v>47</v>
       </c>
       <c r="C105" s="35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D105" s="28" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E105" s="29" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F105" s="31"/>
       <c r="G105" s="31"/>
@@ -7414,13 +7420,13 @@
         <v>47</v>
       </c>
       <c r="C106" s="35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D106" s="28" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E106" s="29" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F106" s="31"/>
       <c r="G106" s="31"/>
@@ -7451,13 +7457,13 @@
         <v>47</v>
       </c>
       <c r="C107" s="35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D107" s="28" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E107" s="29" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F107" s="31"/>
       <c r="G107" s="31"/>
@@ -7488,13 +7494,13 @@
         <v>47</v>
       </c>
       <c r="C108" s="35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D108" s="28" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E108" s="29" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F108" s="31"/>
       <c r="G108" s="31"/>
@@ -7525,13 +7531,13 @@
         <v>47</v>
       </c>
       <c r="C109" s="35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D109" s="28" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E109" s="29" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F109" s="31"/>
       <c r="G109" s="31"/>
@@ -7562,13 +7568,13 @@
         <v>47</v>
       </c>
       <c r="C110" s="35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D110" s="28" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E110" s="29" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F110" s="31"/>
       <c r="G110" s="31"/>
@@ -7599,13 +7605,13 @@
         <v>47</v>
       </c>
       <c r="C111" s="35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D111" s="28" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E111" s="29" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F111" s="31"/>
       <c r="G111" s="31"/>
@@ -7636,13 +7642,13 @@
         <v>47</v>
       </c>
       <c r="C112" s="35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D112" s="28" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E112" s="29" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F112" s="31"/>
       <c r="G112" s="31"/>
@@ -7673,13 +7679,13 @@
         <v>47</v>
       </c>
       <c r="C113" s="35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D113" s="28" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E113" s="29" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F113" s="31"/>
       <c r="G113" s="31"/>
@@ -7710,13 +7716,13 @@
         <v>47</v>
       </c>
       <c r="C114" s="35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D114" s="28" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E114" s="29" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F114" s="31"/>
       <c r="G114" s="31"/>
@@ -7747,13 +7753,13 @@
         <v>47</v>
       </c>
       <c r="C115" s="35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D115" s="28" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E115" s="29" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F115" s="31"/>
       <c r="G115" s="31"/>
@@ -7787,10 +7793,10 @@
         <v>61</v>
       </c>
       <c r="D116" s="28" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E116" s="29" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F116" s="31"/>
       <c r="G116" s="31"/>
@@ -7799,7 +7805,9 @@
       <c r="J116" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="K116" s="32"/>
+      <c r="K116" s="32" t="s">
+        <v>64</v>
+      </c>
       <c r="L116" s="32"/>
       <c r="M116" s="32"/>
       <c r="N116" s="32"/>
@@ -7826,10 +7834,10 @@
         <v>61</v>
       </c>
       <c r="D117" s="28" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E117" s="29" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F117" s="31"/>
       <c r="G117" s="31"/>
@@ -7838,7 +7846,9 @@
       <c r="J117" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="K117" s="32"/>
+      <c r="K117" s="32" t="s">
+        <v>64</v>
+      </c>
       <c r="L117" s="32"/>
       <c r="M117" s="32"/>
       <c r="N117" s="32"/>
@@ -7865,10 +7875,10 @@
         <v>61</v>
       </c>
       <c r="D118" s="28" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E118" s="29" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F118" s="31"/>
       <c r="G118" s="31"/>
@@ -7877,7 +7887,9 @@
       <c r="J118" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="K118" s="32"/>
+      <c r="K118" s="32" t="s">
+        <v>64</v>
+      </c>
       <c r="L118" s="32"/>
       <c r="M118" s="32"/>
       <c r="N118" s="32"/>
@@ -7904,10 +7916,10 @@
         <v>61</v>
       </c>
       <c r="D119" s="28" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E119" s="29" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F119" s="31"/>
       <c r="G119" s="31"/>
@@ -7916,7 +7928,9 @@
       <c r="J119" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="K119" s="32"/>
+      <c r="K119" s="32" t="s">
+        <v>64</v>
+      </c>
       <c r="L119" s="32"/>
       <c r="M119" s="32"/>
       <c r="N119" s="32"/>
@@ -7943,10 +7957,10 @@
         <v>61</v>
       </c>
       <c r="D120" s="28" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E120" s="29" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F120" s="31"/>
       <c r="G120" s="31"/>
@@ -7955,7 +7969,9 @@
       <c r="J120" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="K120" s="32"/>
+      <c r="K120" s="32" t="s">
+        <v>64</v>
+      </c>
       <c r="L120" s="32"/>
       <c r="M120" s="32"/>
       <c r="N120" s="32"/>
@@ -7982,10 +7998,10 @@
         <v>61</v>
       </c>
       <c r="D121" s="28" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E121" s="29" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F121" s="31"/>
       <c r="G121" s="31"/>
@@ -7994,7 +8010,9 @@
       <c r="J121" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="K121" s="32"/>
+      <c r="K121" s="32" t="s">
+        <v>64</v>
+      </c>
       <c r="L121" s="32"/>
       <c r="M121" s="32"/>
       <c r="N121" s="32"/>
@@ -8021,10 +8039,10 @@
         <v>61</v>
       </c>
       <c r="D122" s="28" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E122" s="29" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F122" s="31"/>
       <c r="G122" s="31"/>
@@ -8033,7 +8051,9 @@
       <c r="J122" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="K122" s="32"/>
+      <c r="K122" s="32" t="s">
+        <v>64</v>
+      </c>
       <c r="L122" s="32"/>
       <c r="M122" s="32"/>
       <c r="N122" s="32"/>
@@ -8060,10 +8080,10 @@
         <v>61</v>
       </c>
       <c r="D123" s="28" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E123" s="29" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F123" s="31"/>
       <c r="G123" s="31"/>
@@ -8072,7 +8092,9 @@
       <c r="J123" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="K123" s="32"/>
+      <c r="K123" s="32" t="s">
+        <v>64</v>
+      </c>
       <c r="L123" s="32"/>
       <c r="M123" s="32"/>
       <c r="N123" s="32"/>
@@ -8099,10 +8121,10 @@
         <v>61</v>
       </c>
       <c r="D124" s="28" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E124" s="29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F124" s="31"/>
       <c r="G124" s="31"/>
@@ -8111,7 +8133,9 @@
       <c r="J124" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="K124" s="32"/>
+      <c r="K124" s="32" t="s">
+        <v>64</v>
+      </c>
       <c r="L124" s="32"/>
       <c r="M124" s="32"/>
       <c r="N124" s="32"/>
@@ -8138,10 +8162,10 @@
         <v>61</v>
       </c>
       <c r="D125" s="28" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E125" s="29" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F125" s="31"/>
       <c r="G125" s="31"/>
@@ -8150,7 +8174,9 @@
       <c r="J125" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="K125" s="32"/>
+      <c r="K125" s="32" t="s">
+        <v>64</v>
+      </c>
       <c r="L125" s="32"/>
       <c r="M125" s="32"/>
       <c r="N125" s="32"/>
@@ -8177,10 +8203,10 @@
         <v>61</v>
       </c>
       <c r="D126" s="28" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E126" s="29" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F126" s="31"/>
       <c r="G126" s="31"/>
@@ -8189,7 +8215,9 @@
       <c r="J126" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="K126" s="32"/>
+      <c r="K126" s="32" t="s">
+        <v>64</v>
+      </c>
       <c r="L126" s="32"/>
       <c r="M126" s="32"/>
       <c r="N126" s="32"/>
@@ -8216,10 +8244,10 @@
         <v>61</v>
       </c>
       <c r="D127" s="28" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E127" s="29" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F127" s="31"/>
       <c r="G127" s="31"/>
@@ -8228,7 +8256,9 @@
       <c r="J127" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="K127" s="32"/>
+      <c r="K127" s="32" t="s">
+        <v>64</v>
+      </c>
       <c r="L127" s="32"/>
       <c r="M127" s="32"/>
       <c r="N127" s="32"/>
@@ -8255,10 +8285,10 @@
         <v>61</v>
       </c>
       <c r="D128" s="28" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E128" s="29" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F128" s="31"/>
       <c r="G128" s="31"/>
@@ -8267,7 +8297,9 @@
       <c r="J128" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="K128" s="32"/>
+      <c r="K128" s="32" t="s">
+        <v>64</v>
+      </c>
       <c r="L128" s="32"/>
       <c r="M128" s="32"/>
       <c r="N128" s="32"/>
@@ -8294,10 +8326,10 @@
         <v>61</v>
       </c>
       <c r="D129" s="28" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E129" s="29" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F129" s="31"/>
       <c r="G129" s="31"/>
@@ -8306,7 +8338,9 @@
       <c r="J129" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="K129" s="32"/>
+      <c r="K129" s="32" t="s">
+        <v>64</v>
+      </c>
       <c r="L129" s="32"/>
       <c r="M129" s="32"/>
       <c r="N129" s="32"/>
@@ -8333,10 +8367,10 @@
         <v>61</v>
       </c>
       <c r="D130" s="28" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E130" s="29" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F130" s="31"/>
       <c r="G130" s="31"/>
@@ -8345,7 +8379,9 @@
       <c r="J130" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="K130" s="32"/>
+      <c r="K130" s="32" t="s">
+        <v>64</v>
+      </c>
       <c r="L130" s="32"/>
       <c r="M130" s="32"/>
       <c r="N130" s="32"/>
@@ -8372,10 +8408,10 @@
         <v>57</v>
       </c>
       <c r="D131" s="28" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E131" s="29" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F131" s="31"/>
       <c r="G131" s="31"/>
@@ -8409,10 +8445,10 @@
         <v>57</v>
       </c>
       <c r="D132" s="28" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E132" s="29" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F132" s="31"/>
       <c r="G132" s="31"/>
@@ -8446,10 +8482,10 @@
         <v>57</v>
       </c>
       <c r="D133" s="28" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E133" s="29" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F133" s="31"/>
       <c r="G133" s="31"/>
@@ -8483,10 +8519,10 @@
         <v>57</v>
       </c>
       <c r="D134" s="28" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E134" s="29" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F134" s="31"/>
       <c r="G134" s="31"/>
@@ -8520,10 +8556,10 @@
         <v>57</v>
       </c>
       <c r="D135" s="28" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E135" s="29" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F135" s="31"/>
       <c r="G135" s="31"/>
@@ -8557,10 +8593,10 @@
         <v>57</v>
       </c>
       <c r="D136" s="28" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E136" s="29" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F136" s="31"/>
       <c r="G136" s="31"/>
@@ -8594,10 +8630,10 @@
         <v>57</v>
       </c>
       <c r="D137" s="28" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E137" s="29" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F137" s="31"/>
       <c r="G137" s="31"/>
@@ -8631,10 +8667,10 @@
         <v>57</v>
       </c>
       <c r="D138" s="28" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E138" s="29" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F138" s="31"/>
       <c r="G138" s="31"/>
@@ -8668,10 +8704,10 @@
         <v>57</v>
       </c>
       <c r="D139" s="28" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E139" s="29" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F139" s="31"/>
       <c r="G139" s="31"/>
@@ -8705,10 +8741,10 @@
         <v>57</v>
       </c>
       <c r="D140" s="28" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E140" s="29" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F140" s="31"/>
       <c r="G140" s="31"/>
@@ -8742,10 +8778,10 @@
         <v>57</v>
       </c>
       <c r="D141" s="28" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E141" s="29" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F141" s="31"/>
       <c r="G141" s="31"/>
@@ -8779,10 +8815,10 @@
         <v>57</v>
       </c>
       <c r="D142" s="28" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E142" s="29" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F142" s="31"/>
       <c r="G142" s="31"/>
@@ -8816,10 +8852,10 @@
         <v>57</v>
       </c>
       <c r="D143" s="28" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E143" s="29" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F143" s="31"/>
       <c r="G143" s="31"/>
@@ -8853,10 +8889,10 @@
         <v>57</v>
       </c>
       <c r="D144" s="28" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E144" s="29" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F144" s="31"/>
       <c r="G144" s="31"/>
@@ -8890,10 +8926,10 @@
         <v>57</v>
       </c>
       <c r="D145" s="28" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E145" s="29" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F145" s="31"/>
       <c r="G145" s="31"/>
@@ -8927,10 +8963,10 @@
         <v>48</v>
       </c>
       <c r="D146" s="28" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E146" s="29" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F146" s="31"/>
       <c r="G146" s="31"/>
@@ -8964,10 +9000,10 @@
         <v>48</v>
       </c>
       <c r="D147" s="28" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E147" s="29" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F147" s="31"/>
       <c r="G147" s="31"/>
@@ -8998,13 +9034,13 @@
         <v>47</v>
       </c>
       <c r="C148" s="35" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D148" s="28" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E148" s="29" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F148" s="31"/>
       <c r="G148" s="31"/>
@@ -9035,13 +9071,13 @@
         <v>47</v>
       </c>
       <c r="C149" s="35" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D149" s="28" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E149" s="29" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F149" s="31"/>
       <c r="G149" s="31"/>
@@ -9072,13 +9108,13 @@
         <v>47</v>
       </c>
       <c r="C150" s="35" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D150" s="28" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E150" s="29" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F150" s="31"/>
       <c r="G150" s="31"/>
@@ -9109,10 +9145,10 @@
         <v>47</v>
       </c>
       <c r="C151" s="35" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D151" s="28" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E151" s="36" t="s">
         <v>53</v>
@@ -9146,13 +9182,13 @@
         <v>47</v>
       </c>
       <c r="C152" s="35" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D152" s="28" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E152" s="36" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F152" s="31"/>
       <c r="G152" s="31"/>
@@ -9183,13 +9219,13 @@
         <v>47</v>
       </c>
       <c r="C153" s="35" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D153" s="28" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E153" s="29" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F153" s="31"/>
       <c r="G153" s="31"/>
@@ -9220,13 +9256,13 @@
         <v>47</v>
       </c>
       <c r="C154" s="35" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D154" s="28" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E154" s="29" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F154" s="31"/>
       <c r="G154" s="31"/>
@@ -9257,13 +9293,13 @@
         <v>47</v>
       </c>
       <c r="C155" s="35" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D155" s="28" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E155" s="29" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F155" s="31"/>
       <c r="G155" s="31"/>
@@ -9294,13 +9330,13 @@
         <v>47</v>
       </c>
       <c r="C156" s="35" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D156" s="28" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E156" s="29" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F156" s="31"/>
       <c r="G156" s="31"/>
@@ -9331,13 +9367,13 @@
         <v>47</v>
       </c>
       <c r="C157" s="35" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D157" s="28" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E157" s="29" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F157" s="31"/>
       <c r="G157" s="31"/>
@@ -9368,13 +9404,13 @@
         <v>47</v>
       </c>
       <c r="C158" s="35" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D158" s="28" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E158" s="29" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F158" s="31"/>
       <c r="G158" s="31"/>
@@ -9405,13 +9441,13 @@
         <v>47</v>
       </c>
       <c r="C159" s="35" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D159" s="28" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E159" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F159" s="31"/>
       <c r="G159" s="31"/>
@@ -9442,13 +9478,13 @@
         <v>47</v>
       </c>
       <c r="C160" s="35" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D160" s="28" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E160" s="29" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F160" s="31"/>
       <c r="G160" s="31"/>
@@ -9479,13 +9515,13 @@
         <v>47</v>
       </c>
       <c r="C161" s="35" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D161" s="28" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E161" s="29" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F161" s="31"/>
       <c r="G161" s="31"/>
@@ -9516,13 +9552,13 @@
         <v>47</v>
       </c>
       <c r="C162" s="35" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D162" s="28" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E162" s="29" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F162" s="31"/>
       <c r="G162" s="31"/>
@@ -9553,13 +9589,13 @@
         <v>47</v>
       </c>
       <c r="C163" s="35" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D163" s="28" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E163" s="29" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F163" s="31"/>
       <c r="G163" s="31"/>
@@ -9593,10 +9629,10 @@
         <v>57</v>
       </c>
       <c r="D164" s="28" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E164" s="29" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F164" s="31"/>
       <c r="G164" s="31"/>
@@ -9630,10 +9666,10 @@
         <v>57</v>
       </c>
       <c r="D165" s="28" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E165" s="29" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F165" s="31"/>
       <c r="G165" s="31"/>
@@ -9667,25 +9703,25 @@
         <v>61</v>
       </c>
       <c r="D166" s="28" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E166" s="29" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F166" s="31" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G166" s="38" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H166" s="39" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I166" s="39" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="J166" s="32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K166" s="32"/>
       <c r="L166" s="32"/>
@@ -9714,25 +9750,25 @@
         <v>61</v>
       </c>
       <c r="D167" s="28" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E167" s="29" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F167" s="31" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G167" s="31" t="n">
         <v>45926.4242632467</v>
       </c>
       <c r="H167" s="31" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I167" s="37" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J167" s="32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K167" s="32"/>
       <c r="L167" s="32"/>
@@ -9761,10 +9797,10 @@
         <v>55</v>
       </c>
       <c r="D168" s="28" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E168" s="29" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F168" s="31"/>
       <c r="G168" s="31"/>
@@ -9798,10 +9834,10 @@
         <v>55</v>
       </c>
       <c r="D169" s="28" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E169" s="29" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F169" s="31"/>
       <c r="G169" s="31"/>
@@ -9835,10 +9871,10 @@
         <v>48</v>
       </c>
       <c r="D170" s="28" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E170" s="29" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F170" s="31"/>
       <c r="G170" s="31"/>
@@ -9869,13 +9905,13 @@
         <v>47</v>
       </c>
       <c r="C171" s="35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D171" s="28" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E171" s="29" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F171" s="31"/>
       <c r="G171" s="31"/>
@@ -9906,13 +9942,13 @@
         <v>47</v>
       </c>
       <c r="C172" s="35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D172" s="28" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E172" s="29" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F172" s="31"/>
       <c r="G172" s="31"/>
@@ -9943,13 +9979,13 @@
         <v>47</v>
       </c>
       <c r="C173" s="35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D173" s="28" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E173" s="29" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F173" s="31"/>
       <c r="G173" s="31"/>
@@ -9980,13 +10016,13 @@
         <v>47</v>
       </c>
       <c r="C174" s="35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D174" s="28" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E174" s="29" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F174" s="31"/>
       <c r="G174" s="31"/>
@@ -10017,13 +10053,13 @@
         <v>47</v>
       </c>
       <c r="C175" s="35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D175" s="28" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E175" s="29" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F175" s="31"/>
       <c r="G175" s="31"/>
@@ -10054,13 +10090,13 @@
         <v>47</v>
       </c>
       <c r="C176" s="35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D176" s="28" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E176" s="29" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F176" s="31"/>
       <c r="G176" s="31"/>
@@ -10091,13 +10127,13 @@
         <v>47</v>
       </c>
       <c r="C177" s="35" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D177" s="28" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E177" s="29" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F177" s="31"/>
       <c r="G177" s="31"/>
@@ -10131,10 +10167,10 @@
         <v>61</v>
       </c>
       <c r="D178" s="28" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E178" s="29" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F178" s="28"/>
       <c r="G178" s="28"/>
@@ -10143,7 +10179,9 @@
       <c r="J178" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="K178" s="32"/>
+      <c r="K178" s="32" t="s">
+        <v>64</v>
+      </c>
       <c r="L178" s="28"/>
       <c r="M178" s="32"/>
       <c r="N178" s="32"/>
@@ -10170,10 +10208,10 @@
         <v>59</v>
       </c>
       <c r="D179" s="28" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E179" s="29" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F179" s="28"/>
       <c r="G179" s="28"/>
@@ -10204,13 +10242,13 @@
         <v>47</v>
       </c>
       <c r="C180" s="35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D180" s="28" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E180" s="29" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F180" s="28"/>
       <c r="G180" s="28"/>
@@ -10241,13 +10279,13 @@
         <v>47</v>
       </c>
       <c r="C181" s="35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D181" s="28" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E181" s="29" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F181" s="28"/>
       <c r="G181" s="28"/>
@@ -10278,13 +10316,13 @@
         <v>47</v>
       </c>
       <c r="C182" s="35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D182" s="28" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E182" s="29" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F182" s="28"/>
       <c r="G182" s="28"/>
@@ -10318,10 +10356,10 @@
         <v>48</v>
       </c>
       <c r="D183" s="28" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E183" s="29" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F183" s="28"/>
       <c r="G183" s="28"/>
@@ -10355,10 +10393,10 @@
         <v>55</v>
       </c>
       <c r="D184" s="28" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E184" s="29" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F184" s="28"/>
       <c r="G184" s="28"/>
@@ -10392,10 +10430,10 @@
         <v>61</v>
       </c>
       <c r="D185" s="28" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E185" s="29" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F185" s="28"/>
       <c r="G185" s="28"/>
@@ -10404,7 +10442,9 @@
       <c r="J185" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="K185" s="32"/>
+      <c r="K185" s="32" t="s">
+        <v>64</v>
+      </c>
       <c r="L185" s="28"/>
       <c r="M185" s="32"/>
       <c r="N185" s="32"/>
@@ -10431,10 +10471,10 @@
         <v>57</v>
       </c>
       <c r="D186" s="28" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E186" s="29" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F186" s="28"/>
       <c r="G186" s="28"/>
@@ -10465,13 +10505,13 @@
         <v>47</v>
       </c>
       <c r="C187" s="35" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D187" s="28" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E187" s="29" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F187" s="28"/>
       <c r="G187" s="28"/>
@@ -10505,10 +10545,10 @@
         <v>59</v>
       </c>
       <c r="D188" s="28" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E188" s="29" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F188" s="31"/>
       <c r="G188" s="31"/>
@@ -10542,10 +10582,10 @@
         <v>59</v>
       </c>
       <c r="D189" s="28" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E189" s="29" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F189" s="31"/>
       <c r="G189" s="31"/>
@@ -10579,10 +10619,10 @@
         <v>48</v>
       </c>
       <c r="D190" s="35" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E190" s="29" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F190" s="31"/>
       <c r="G190" s="31"/>
@@ -10616,10 +10656,10 @@
         <v>59</v>
       </c>
       <c r="D191" s="28" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E191" s="29" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F191" s="31"/>
       <c r="G191" s="31"/>
@@ -10653,10 +10693,10 @@
         <v>61</v>
       </c>
       <c r="D192" s="28" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E192" s="29" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F192" s="31"/>
       <c r="G192" s="31"/>
@@ -10665,7 +10705,9 @@
       <c r="J192" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="K192" s="32"/>
+      <c r="K192" s="32" t="s">
+        <v>64</v>
+      </c>
       <c r="L192" s="32"/>
       <c r="M192" s="32"/>
       <c r="N192" s="32"/>
@@ -14749,37 +14791,37 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>417</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14811,7 +14853,7 @@
       <selection pane="bottomLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.82"/>
@@ -14886,7 +14928,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B5" s="42" t="s">
         <v>424</v>
@@ -14900,7 +14942,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B6" s="42" t="s">
         <v>424</v>
@@ -14914,7 +14956,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="42" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B7" s="42" t="s">
         <v>424</v>
@@ -14970,7 +15012,7 @@
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="42" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B11" s="42" t="s">
         <v>424</v>
@@ -15959,7 +16001,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.17"/>
@@ -15979,7 +16021,7 @@
         <v>446</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/GATEWAY/A1#111#GMCSRLXX/Ginevra_Media_Communication/GMC-Medical/1.0.0/accreditamento-checklist_V8.2.6.1.xlsx
+++ b/GATEWAY/A1#111#GMCSRLXX/Ginevra_Media_Communication/GMC-Medical/1.0.0/accreditamento-checklist_V8.2.6.1.xlsx
@@ -1433,16 +1433,16 @@
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025/09/26 10:50:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-09-26T10:10:55.358364795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fde0ddfa655019e5aa19bf0e0886a3c1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.f50cf25009^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025/09/30 12:05:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-09-30T12:05:50.191546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cc454d88947e839e7823792c21fa6ea7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.bb809088cf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT25</t>
@@ -1452,10 +1452,10 @@
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 25" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">89f5ada5ffc91aa6bb83ae57932efe22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.5d881df669^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">f0830866fe8c92746fe3a0e1a51fabbc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.6ea82e6a7172ffd6fe9dda4728d40aeb9d42e6e75d3591ee9722c6e94fca00a7.a2cbc6c142^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT17</t>
@@ -2364,11 +2364,11 @@
   </sheetPr>
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="130.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="0" width="8.82"/>
@@ -2451,11 +2451,11 @@
   </sheetPr>
   <dimension ref="A1:B996"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="194.18"/>
@@ -3528,15 +3528,15 @@
   </sheetPr>
   <dimension ref="A1:W752"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="J166" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="H154" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="A166" activeCellId="0" sqref="A166"/>
-      <selection pane="bottomRight" activeCell="K192" activeCellId="0" sqref="K192"/>
+      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A154" activeCellId="0" sqref="A154"/>
+      <selection pane="bottomRight" activeCell="I167" activeCellId="0" sqref="I167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.83"/>
@@ -9759,7 +9759,7 @@
         <v>354</v>
       </c>
       <c r="G167" s="31" t="n">
-        <v>45926.4242632467</v>
+        <v>45930.5041078536</v>
       </c>
       <c r="H167" s="31" t="s">
         <v>360</v>
@@ -14783,7 +14783,7 @@
   </sheetPr>
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -14847,13 +14847,13 @@
   </sheetPr>
   <dimension ref="A1:G960"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.82"/>
@@ -15997,11 +15997,11 @@
   </sheetPr>
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.17"/>

--- a/GATEWAY/A1#111#GMCSRLXX/Ginevra_Media_Communication/GMC-Medical/1.0.0/accreditamento-checklist_V8.2.6.1.xlsx
+++ b/GATEWAY/A1#111#GMCSRLXX/Ginevra_Media_Communication/GMC-Medical/1.0.0/accreditamento-checklist_V8.2.6.1.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="446">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1433,16 +1433,16 @@
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025/09/30 12:05:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-09-30T12:05:50.191546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cc454d88947e839e7823792c21fa6ea7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.bb809088cf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025/10/03 10:47:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-10-03T10:47:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eb24315bcff3fb2365b0246a6e33e111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.4e2afb0165^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT25</t>
@@ -1450,12 +1450,6 @@
   <si>
     <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 25" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f0830866fe8c92746fe3a0e1a51fabbc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.6ea82e6a7172ffd6fe9dda4728d40aeb9d42e6e75d3591ee9722c6e94fca00a7.a2cbc6c142^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT17</t>
@@ -2364,7 +2358,7 @@
   </sheetPr>
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -2451,7 +2445,7 @@
   </sheetPr>
   <dimension ref="A1:B996"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -3528,12 +3522,12 @@
   </sheetPr>
   <dimension ref="A1:W752"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="H154" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="F163" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A154" activeCellId="0" sqref="A154"/>
-      <selection pane="bottomRight" activeCell="I167" activeCellId="0" sqref="I167"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A163" activeCellId="0" sqref="A163"/>
+      <selection pane="bottomRight" activeCell="H170" activeCellId="0" sqref="H170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9755,22 +9749,16 @@
       <c r="E167" s="29" t="s">
         <v>359</v>
       </c>
-      <c r="F167" s="31" t="s">
-        <v>354</v>
-      </c>
-      <c r="G167" s="31" t="n">
-        <v>45930.5041078536</v>
-      </c>
-      <c r="H167" s="31" t="s">
-        <v>360</v>
-      </c>
-      <c r="I167" s="37" t="s">
-        <v>361</v>
-      </c>
+      <c r="F167" s="31"/>
+      <c r="G167" s="31"/>
+      <c r="H167" s="31"/>
+      <c r="I167" s="37"/>
       <c r="J167" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="K167" s="32"/>
+        <v>63</v>
+      </c>
+      <c r="K167" s="32" t="s">
+        <v>64</v>
+      </c>
       <c r="L167" s="32"/>
       <c r="M167" s="32"/>
       <c r="N167" s="32"/>
@@ -9797,10 +9785,10 @@
         <v>55</v>
       </c>
       <c r="D168" s="28" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E168" s="29" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F168" s="31"/>
       <c r="G168" s="31"/>
@@ -9834,10 +9822,10 @@
         <v>55</v>
       </c>
       <c r="D169" s="28" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E169" s="29" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F169" s="31"/>
       <c r="G169" s="31"/>
@@ -9871,10 +9859,10 @@
         <v>48</v>
       </c>
       <c r="D170" s="28" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E170" s="29" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F170" s="31"/>
       <c r="G170" s="31"/>
@@ -9908,10 +9896,10 @@
         <v>69</v>
       </c>
       <c r="D171" s="28" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E171" s="29" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F171" s="31"/>
       <c r="G171" s="31"/>
@@ -9945,10 +9933,10 @@
         <v>69</v>
       </c>
       <c r="D172" s="28" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E172" s="29" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F172" s="31"/>
       <c r="G172" s="31"/>
@@ -9982,10 +9970,10 @@
         <v>67</v>
       </c>
       <c r="D173" s="28" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E173" s="29" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F173" s="31"/>
       <c r="G173" s="31"/>
@@ -10019,10 +10007,10 @@
         <v>67</v>
       </c>
       <c r="D174" s="28" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E174" s="29" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F174" s="31"/>
       <c r="G174" s="31"/>
@@ -10056,10 +10044,10 @@
         <v>65</v>
       </c>
       <c r="D175" s="28" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E175" s="29" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F175" s="31"/>
       <c r="G175" s="31"/>
@@ -10093,10 +10081,10 @@
         <v>65</v>
       </c>
       <c r="D176" s="28" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E176" s="29" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F176" s="31"/>
       <c r="G176" s="31"/>
@@ -10130,10 +10118,10 @@
         <v>317</v>
       </c>
       <c r="D177" s="28" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E177" s="29" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F177" s="31"/>
       <c r="G177" s="31"/>
@@ -10167,10 +10155,10 @@
         <v>61</v>
       </c>
       <c r="D178" s="28" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E178" s="29" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F178" s="28"/>
       <c r="G178" s="28"/>
@@ -10208,10 +10196,10 @@
         <v>59</v>
       </c>
       <c r="D179" s="28" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E179" s="29" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F179" s="28"/>
       <c r="G179" s="28"/>
@@ -10245,10 +10233,10 @@
         <v>69</v>
       </c>
       <c r="D180" s="28" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E180" s="29" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F180" s="28"/>
       <c r="G180" s="28"/>
@@ -10282,10 +10270,10 @@
         <v>65</v>
       </c>
       <c r="D181" s="28" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E181" s="29" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F181" s="28"/>
       <c r="G181" s="28"/>
@@ -10319,10 +10307,10 @@
         <v>67</v>
       </c>
       <c r="D182" s="28" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E182" s="29" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F182" s="28"/>
       <c r="G182" s="28"/>
@@ -10356,10 +10344,10 @@
         <v>48</v>
       </c>
       <c r="D183" s="28" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E183" s="29" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F183" s="28"/>
       <c r="G183" s="28"/>
@@ -10393,10 +10381,10 @@
         <v>55</v>
       </c>
       <c r="D184" s="28" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E184" s="29" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F184" s="28"/>
       <c r="G184" s="28"/>
@@ -10430,10 +10418,10 @@
         <v>61</v>
       </c>
       <c r="D185" s="28" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E185" s="29" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F185" s="28"/>
       <c r="G185" s="28"/>
@@ -10471,10 +10459,10 @@
         <v>57</v>
       </c>
       <c r="D186" s="28" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E186" s="29" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F186" s="28"/>
       <c r="G186" s="28"/>
@@ -10508,10 +10496,10 @@
         <v>317</v>
       </c>
       <c r="D187" s="28" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E187" s="29" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F187" s="28"/>
       <c r="G187" s="28"/>
@@ -10545,10 +10533,10 @@
         <v>59</v>
       </c>
       <c r="D188" s="28" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E188" s="29" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F188" s="31"/>
       <c r="G188" s="31"/>
@@ -10582,10 +10570,10 @@
         <v>59</v>
       </c>
       <c r="D189" s="28" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E189" s="29" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F189" s="31"/>
       <c r="G189" s="31"/>
@@ -10619,10 +10607,10 @@
         <v>48</v>
       </c>
       <c r="D190" s="35" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E190" s="29" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F190" s="31"/>
       <c r="G190" s="31"/>
@@ -10656,10 +10644,10 @@
         <v>59</v>
       </c>
       <c r="D191" s="28" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E191" s="29" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F191" s="31"/>
       <c r="G191" s="31"/>
@@ -10693,10 +10681,10 @@
         <v>61</v>
       </c>
       <c r="D192" s="28" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E192" s="29" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F192" s="31"/>
       <c r="G192" s="31"/>
@@ -14783,7 +14771,7 @@
   </sheetPr>
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -14791,32 +14779,32 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14826,7 +14814,7 @@
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -14847,7 +14835,7 @@
   </sheetPr>
   <dimension ref="A1:G960"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
@@ -14866,22 +14854,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="17" t="s">
+        <v>418</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="F1" s="40" t="s">
         <v>420</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="G1" s="41" t="s">
         <v>421</v>
-      </c>
-      <c r="F1" s="40" t="s">
-        <v>422</v>
-      </c>
-      <c r="G1" s="41" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14889,13 +14877,13 @@
         <v>48</v>
       </c>
       <c r="B2" s="42" t="s">
+        <v>422</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>423</v>
+      </c>
+      <c r="D2" s="44" t="s">
         <v>424</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>425</v>
-      </c>
-      <c r="D2" s="44" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14903,13 +14891,13 @@
         <v>55</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14917,13 +14905,13 @@
         <v>59</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14931,13 +14919,13 @@
         <v>65</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14945,13 +14933,13 @@
         <v>67</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14959,13 +14947,13 @@
         <v>69</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14973,13 +14961,13 @@
         <v>61</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14987,27 +14975,27 @@
         <v>57</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="42" t="s">
+        <v>439</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>422</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>440</v>
+      </c>
+      <c r="D10" s="44" t="s">
         <v>441</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>424</v>
-      </c>
-      <c r="C10" s="46" t="s">
-        <v>442</v>
-      </c>
-      <c r="D10" s="44" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15015,13 +15003,13 @@
         <v>317</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D11" s="45" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15997,7 +15985,7 @@
   </sheetPr>
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -16018,7 +16006,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="48" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B2" s="48" t="s">
         <v>82</v>
@@ -16026,7 +16014,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="48" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B3" s="48" t="s">
         <v>63</v>

--- a/GATEWAY/A1#111#GMCSRLXX/Ginevra_Media_Communication/GMC-Medical/1.0.0/accreditamento-checklist_V8.2.6.1.xlsx
+++ b/GATEWAY/A1#111#GMCSRLXX/Ginevra_Media_Communication/GMC-Medical/1.0.0/accreditamento-checklist_V8.2.6.1.xlsx
@@ -1433,16 +1433,16 @@
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025/10/03 10:47:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-10-03T10:47:32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eb24315bcff3fb2365b0246a6e33e111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.4e2afb0165^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025/10/07 11:18:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-10-07T09:18:36Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36bc2be010ea7bcf400b0be50ef402d0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.5.bb3c527d4eeef9580eb08af17281c3c11b7b4584aea72a3e5a11891904e01618.e1671b2554^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT25</t>
@@ -2362,7 +2362,7 @@
       <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="130.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="0" width="8.82"/>
@@ -2449,7 +2449,7 @@
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="194.18"/>
@@ -3523,14 +3523,14 @@
   <dimension ref="A1:W752"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F163" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="H163" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A163" activeCellId="0" sqref="A163"/>
-      <selection pane="bottomRight" activeCell="H170" activeCellId="0" sqref="H170"/>
+      <selection pane="bottomRight" activeCell="I166" activeCellId="0" sqref="I166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.83"/>
@@ -14841,7 +14841,7 @@
       <selection pane="bottomLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.82"/>
@@ -15989,7 +15989,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.17"/>

--- a/GATEWAY/A1#111#GMCSRLXX/Ginevra_Media_Communication/GMC-Medical/1.0.0/accreditamento-checklist_V8.2.6.1.xlsx
+++ b/GATEWAY/A1#111#GMCSRLXX/Ginevra_Media_Communication/GMC-Medical/1.0.0/accreditamento-checklist_V8.2.6.1.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="447">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -496,7 +496,14 @@
     <t xml:space="preserve">VALIDAZIONE_RSA_TIMEOUT</t>
   </si>
   <si>
-    <t xml:space="preserve">Timeout gestito con retry automatico e notifica operatore dopo 3 tentativi falliti</t>
+    <t xml:space="preserve">Servizio FSE temporaneamente non disponibile. Retry automatico in corso...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema gestisce timeout con retry automatico (3 tentativi x 30s intervallo).
+Implementazione in fse_service.py: timeout=30s per richiesta, loop retry con backoff.
+Comportamento: registrazione tentativi in DB (fse_retry_count, fse_last_error, fse_last_attempt).
+Dopo 3 fallimenti: notifica operatore, possibilità invio manuale.
+Durante retry: utente non bloccato, log completo per audit.</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CERT_VAC_TIMEOUT</t>
@@ -2362,7 +2369,7 @@
       <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.49609375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="130.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="0" width="8.82"/>
@@ -2449,7 +2456,7 @@
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.49609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="194.18"/>
@@ -3523,14 +3530,14 @@
   <dimension ref="A1:W752"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="H163" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="R23" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A163" activeCellId="0" sqref="A163"/>
-      <selection pane="bottomRight" activeCell="I166" activeCellId="0" sqref="I166"/>
+      <selection pane="topRight" activeCell="R1" activeCellId="0" sqref="R1"/>
+      <selection pane="bottomLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+      <selection pane="bottomRight" activeCell="S7" activeCellId="0" sqref="S7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.49609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.83"/>
@@ -4628,11 +4635,9 @@
       <c r="H31" s="31"/>
       <c r="I31" s="37"/>
       <c r="J31" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="K31" s="32" t="s">
-        <v>64</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="K31" s="32"/>
       <c r="L31" s="32"/>
       <c r="M31" s="32" t="s">
         <v>63</v>
@@ -4640,18 +4645,20 @@
       <c r="N31" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="O31" s="32"/>
+      <c r="O31" s="32" t="s">
+        <v>87</v>
+      </c>
       <c r="P31" s="32" t="s">
         <v>63</v>
       </c>
       <c r="Q31" s="32" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="R31" s="32" t="s">
         <v>82</v>
       </c>
       <c r="S31" s="32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="T31" s="32"/>
       <c r="U31" s="33" t="s">
@@ -4673,7 +4680,7 @@
         <v>65</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E32" s="29" t="s">
         <v>81</v>
@@ -4712,7 +4719,7 @@
         <v>67</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E33" s="29" t="s">
         <v>81</v>
@@ -4751,7 +4758,7 @@
         <v>69</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E34" s="29" t="s">
         <v>81</v>
@@ -4790,10 +4797,10 @@
         <v>48</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F35" s="31"/>
       <c r="G35" s="31"/>
@@ -4827,10 +4834,10 @@
         <v>48</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F36" s="31"/>
       <c r="G36" s="31"/>
@@ -4864,10 +4871,10 @@
         <v>48</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F37" s="31"/>
       <c r="G37" s="31"/>
@@ -4901,10 +4908,10 @@
         <v>48</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F38" s="31"/>
       <c r="G38" s="31"/>
@@ -4938,10 +4945,10 @@
         <v>48</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F39" s="31"/>
       <c r="G39" s="31"/>
@@ -4975,10 +4982,10 @@
         <v>48</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F40" s="31"/>
       <c r="G40" s="31"/>
@@ -5012,10 +5019,10 @@
         <v>48</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F41" s="31"/>
       <c r="G41" s="31"/>
@@ -5049,10 +5056,10 @@
         <v>48</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E42" s="29" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F42" s="31"/>
       <c r="G42" s="31"/>
@@ -5086,10 +5093,10 @@
         <v>55</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E43" s="29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F43" s="31"/>
       <c r="G43" s="31"/>
@@ -5123,10 +5130,10 @@
         <v>55</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E44" s="29" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F44" s="31"/>
       <c r="G44" s="31"/>
@@ -5160,10 +5167,10 @@
         <v>55</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E45" s="29" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F45" s="31"/>
       <c r="G45" s="31"/>
@@ -5197,10 +5204,10 @@
         <v>55</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E46" s="29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F46" s="31"/>
       <c r="G46" s="31"/>
@@ -5234,10 +5241,10 @@
         <v>55</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E47" s="29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F47" s="31"/>
       <c r="G47" s="31"/>
@@ -5271,10 +5278,10 @@
         <v>55</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E48" s="29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F48" s="31"/>
       <c r="G48" s="31"/>
@@ -5308,10 +5315,10 @@
         <v>55</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E49" s="29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F49" s="31"/>
       <c r="G49" s="31"/>
@@ -5345,10 +5352,10 @@
         <v>55</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E50" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F50" s="31"/>
       <c r="G50" s="31"/>
@@ -5382,10 +5389,10 @@
         <v>55</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E51" s="29" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F51" s="31"/>
       <c r="G51" s="31"/>
@@ -5419,10 +5426,10 @@
         <v>55</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E52" s="29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F52" s="31"/>
       <c r="G52" s="31"/>
@@ -5456,10 +5463,10 @@
         <v>59</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E53" s="29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F53" s="31"/>
       <c r="G53" s="31"/>
@@ -5493,10 +5500,10 @@
         <v>59</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E54" s="29" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F54" s="31"/>
       <c r="G54" s="31"/>
@@ -5530,10 +5537,10 @@
         <v>59</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E55" s="29" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F55" s="31"/>
       <c r="G55" s="31"/>
@@ -5567,10 +5574,10 @@
         <v>59</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E56" s="29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F56" s="31"/>
       <c r="G56" s="31"/>
@@ -5604,10 +5611,10 @@
         <v>59</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E57" s="29" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F57" s="31"/>
       <c r="G57" s="31"/>
@@ -5641,10 +5648,10 @@
         <v>59</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E58" s="29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F58" s="31"/>
       <c r="G58" s="31"/>
@@ -5678,10 +5685,10 @@
         <v>59</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E59" s="29" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F59" s="31"/>
       <c r="G59" s="31"/>
@@ -5715,10 +5722,10 @@
         <v>59</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E60" s="29" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F60" s="31"/>
       <c r="G60" s="31"/>
@@ -5752,10 +5759,10 @@
         <v>59</v>
       </c>
       <c r="D61" s="28" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E61" s="29" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F61" s="31"/>
       <c r="G61" s="31"/>
@@ -5789,10 +5796,10 @@
         <v>59</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E62" s="29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F62" s="31"/>
       <c r="G62" s="31"/>
@@ -5826,10 +5833,10 @@
         <v>59</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E63" s="29" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F63" s="31"/>
       <c r="G63" s="31"/>
@@ -5863,10 +5870,10 @@
         <v>59</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E64" s="29" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F64" s="31"/>
       <c r="G64" s="31"/>
@@ -5900,10 +5907,10 @@
         <v>59</v>
       </c>
       <c r="D65" s="28" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E65" s="29" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F65" s="31"/>
       <c r="G65" s="31"/>
@@ -5937,10 +5944,10 @@
         <v>59</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E66" s="29" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F66" s="31"/>
       <c r="G66" s="31"/>
@@ -5974,10 +5981,10 @@
         <v>59</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E67" s="29" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F67" s="31"/>
       <c r="G67" s="31"/>
@@ -6011,10 +6018,10 @@
         <v>59</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E68" s="29" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F68" s="31"/>
       <c r="G68" s="31"/>
@@ -6048,10 +6055,10 @@
         <v>65</v>
       </c>
       <c r="D69" s="28" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E69" s="29" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F69" s="31"/>
       <c r="G69" s="31"/>
@@ -6085,10 +6092,10 @@
         <v>65</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E70" s="29" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F70" s="31"/>
       <c r="G70" s="31"/>
@@ -6122,10 +6129,10 @@
         <v>65</v>
       </c>
       <c r="D71" s="28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E71" s="29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F71" s="31"/>
       <c r="G71" s="31"/>
@@ -6159,10 +6166,10 @@
         <v>65</v>
       </c>
       <c r="D72" s="28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E72" s="29" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F72" s="31"/>
       <c r="G72" s="31"/>
@@ -6196,10 +6203,10 @@
         <v>65</v>
       </c>
       <c r="D73" s="28" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E73" s="29" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F73" s="31"/>
       <c r="G73" s="31"/>
@@ -6233,10 +6240,10 @@
         <v>65</v>
       </c>
       <c r="D74" s="28" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E74" s="29" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F74" s="31"/>
       <c r="G74" s="31"/>
@@ -6270,10 +6277,10 @@
         <v>65</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E75" s="29" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F75" s="31"/>
       <c r="G75" s="31"/>
@@ -6307,10 +6314,10 @@
         <v>65</v>
       </c>
       <c r="D76" s="28" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E76" s="29" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F76" s="31"/>
       <c r="G76" s="31"/>
@@ -6344,10 +6351,10 @@
         <v>65</v>
       </c>
       <c r="D77" s="28" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E77" s="29" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F77" s="31"/>
       <c r="G77" s="31"/>
@@ -6381,10 +6388,10 @@
         <v>65</v>
       </c>
       <c r="D78" s="28" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E78" s="29" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F78" s="31"/>
       <c r="G78" s="31"/>
@@ -6418,10 +6425,10 @@
         <v>65</v>
       </c>
       <c r="D79" s="28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E79" s="29" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F79" s="31"/>
       <c r="G79" s="31"/>
@@ -6455,10 +6462,10 @@
         <v>67</v>
       </c>
       <c r="D80" s="28" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E80" s="29" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F80" s="31"/>
       <c r="G80" s="31"/>
@@ -6492,10 +6499,10 @@
         <v>67</v>
       </c>
       <c r="D81" s="28" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E81" s="29" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F81" s="31"/>
       <c r="G81" s="31"/>
@@ -6529,10 +6536,10 @@
         <v>67</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E82" s="29" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F82" s="31"/>
       <c r="G82" s="31"/>
@@ -6566,10 +6573,10 @@
         <v>67</v>
       </c>
       <c r="D83" s="28" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E83" s="29" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F83" s="31"/>
       <c r="G83" s="31"/>
@@ -6603,10 +6610,10 @@
         <v>67</v>
       </c>
       <c r="D84" s="28" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E84" s="29" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F84" s="31"/>
       <c r="G84" s="31"/>
@@ -6640,10 +6647,10 @@
         <v>67</v>
       </c>
       <c r="D85" s="28" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E85" s="29" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F85" s="31"/>
       <c r="G85" s="31"/>
@@ -6677,10 +6684,10 @@
         <v>67</v>
       </c>
       <c r="D86" s="28" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E86" s="29" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F86" s="31"/>
       <c r="G86" s="31"/>
@@ -6714,10 +6721,10 @@
         <v>67</v>
       </c>
       <c r="D87" s="28" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E87" s="29" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F87" s="31"/>
       <c r="G87" s="31"/>
@@ -6751,10 +6758,10 @@
         <v>67</v>
       </c>
       <c r="D88" s="28" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E88" s="29" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F88" s="31"/>
       <c r="G88" s="31"/>
@@ -6788,10 +6795,10 @@
         <v>67</v>
       </c>
       <c r="D89" s="28" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E89" s="29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F89" s="31"/>
       <c r="G89" s="31"/>
@@ -6825,10 +6832,10 @@
         <v>67</v>
       </c>
       <c r="D90" s="28" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E90" s="29" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F90" s="31"/>
       <c r="G90" s="31"/>
@@ -6862,10 +6869,10 @@
         <v>67</v>
       </c>
       <c r="D91" s="28" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E91" s="29" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F91" s="31"/>
       <c r="G91" s="31"/>
@@ -6899,10 +6906,10 @@
         <v>67</v>
       </c>
       <c r="D92" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E92" s="29" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F92" s="31"/>
       <c r="G92" s="31"/>
@@ -6936,10 +6943,10 @@
         <v>69</v>
       </c>
       <c r="D93" s="28" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E93" s="29" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F93" s="31"/>
       <c r="G93" s="31"/>
@@ -6973,10 +6980,10 @@
         <v>69</v>
       </c>
       <c r="D94" s="28" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E94" s="29" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F94" s="31"/>
       <c r="G94" s="31"/>
@@ -7010,10 +7017,10 @@
         <v>69</v>
       </c>
       <c r="D95" s="28" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E95" s="29" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F95" s="31"/>
       <c r="G95" s="31"/>
@@ -7047,10 +7054,10 @@
         <v>69</v>
       </c>
       <c r="D96" s="28" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E96" s="29" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F96" s="31"/>
       <c r="G96" s="31"/>
@@ -7084,10 +7091,10 @@
         <v>69</v>
       </c>
       <c r="D97" s="28" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E97" s="29" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F97" s="31"/>
       <c r="G97" s="31"/>
@@ -7121,10 +7128,10 @@
         <v>69</v>
       </c>
       <c r="D98" s="28" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E98" s="29" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F98" s="31"/>
       <c r="G98" s="31"/>
@@ -7158,10 +7165,10 @@
         <v>69</v>
       </c>
       <c r="D99" s="28" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E99" s="29" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F99" s="31"/>
       <c r="G99" s="31"/>
@@ -7195,10 +7202,10 @@
         <v>69</v>
       </c>
       <c r="D100" s="28" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E100" s="29" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F100" s="31"/>
       <c r="G100" s="31"/>
@@ -7232,10 +7239,10 @@
         <v>69</v>
       </c>
       <c r="D101" s="28" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E101" s="29" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F101" s="31"/>
       <c r="G101" s="31"/>
@@ -7269,10 +7276,10 @@
         <v>69</v>
       </c>
       <c r="D102" s="28" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E102" s="29" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F102" s="31"/>
       <c r="G102" s="31"/>
@@ -7306,10 +7313,10 @@
         <v>69</v>
       </c>
       <c r="D103" s="28" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E103" s="29" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F103" s="31"/>
       <c r="G103" s="31"/>
@@ -7343,10 +7350,10 @@
         <v>69</v>
       </c>
       <c r="D104" s="28" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E104" s="29" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F104" s="31"/>
       <c r="G104" s="31"/>
@@ -7380,10 +7387,10 @@
         <v>69</v>
       </c>
       <c r="D105" s="28" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E105" s="29" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F105" s="31"/>
       <c r="G105" s="31"/>
@@ -7417,10 +7424,10 @@
         <v>69</v>
       </c>
       <c r="D106" s="28" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E106" s="29" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F106" s="31"/>
       <c r="G106" s="31"/>
@@ -7454,10 +7461,10 @@
         <v>69</v>
       </c>
       <c r="D107" s="28" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E107" s="29" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F107" s="31"/>
       <c r="G107" s="31"/>
@@ -7491,10 +7498,10 @@
         <v>69</v>
       </c>
       <c r="D108" s="28" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E108" s="29" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F108" s="31"/>
       <c r="G108" s="31"/>
@@ -7528,10 +7535,10 @@
         <v>69</v>
       </c>
       <c r="D109" s="28" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E109" s="29" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F109" s="31"/>
       <c r="G109" s="31"/>
@@ -7565,10 +7572,10 @@
         <v>69</v>
       </c>
       <c r="D110" s="28" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E110" s="29" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F110" s="31"/>
       <c r="G110" s="31"/>
@@ -7602,10 +7609,10 @@
         <v>69</v>
       </c>
       <c r="D111" s="28" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E111" s="29" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F111" s="31"/>
       <c r="G111" s="31"/>
@@ -7639,10 +7646,10 @@
         <v>69</v>
       </c>
       <c r="D112" s="28" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E112" s="29" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F112" s="31"/>
       <c r="G112" s="31"/>
@@ -7676,10 +7683,10 @@
         <v>69</v>
       </c>
       <c r="D113" s="28" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E113" s="29" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F113" s="31"/>
       <c r="G113" s="31"/>
@@ -7713,10 +7720,10 @@
         <v>69</v>
       </c>
       <c r="D114" s="28" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E114" s="29" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F114" s="31"/>
       <c r="G114" s="31"/>
@@ -7750,10 +7757,10 @@
         <v>69</v>
       </c>
       <c r="D115" s="28" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E115" s="29" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F115" s="31"/>
       <c r="G115" s="31"/>
@@ -7787,10 +7794,10 @@
         <v>61</v>
       </c>
       <c r="D116" s="28" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E116" s="29" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F116" s="31"/>
       <c r="G116" s="31"/>
@@ -7828,10 +7835,10 @@
         <v>61</v>
       </c>
       <c r="D117" s="28" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E117" s="29" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F117" s="31"/>
       <c r="G117" s="31"/>
@@ -7869,10 +7876,10 @@
         <v>61</v>
       </c>
       <c r="D118" s="28" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E118" s="29" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F118" s="31"/>
       <c r="G118" s="31"/>
@@ -7910,10 +7917,10 @@
         <v>61</v>
       </c>
       <c r="D119" s="28" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E119" s="29" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F119" s="31"/>
       <c r="G119" s="31"/>
@@ -7951,10 +7958,10 @@
         <v>61</v>
       </c>
       <c r="D120" s="28" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E120" s="29" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F120" s="31"/>
       <c r="G120" s="31"/>
@@ -7992,10 +7999,10 @@
         <v>61</v>
       </c>
       <c r="D121" s="28" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E121" s="29" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F121" s="31"/>
       <c r="G121" s="31"/>
@@ -8033,10 +8040,10 @@
         <v>61</v>
       </c>
       <c r="D122" s="28" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E122" s="29" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F122" s="31"/>
       <c r="G122" s="31"/>
@@ -8074,10 +8081,10 @@
         <v>61</v>
       </c>
       <c r="D123" s="28" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E123" s="29" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F123" s="31"/>
       <c r="G123" s="31"/>
@@ -8115,10 +8122,10 @@
         <v>61</v>
       </c>
       <c r="D124" s="28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E124" s="29" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F124" s="31"/>
       <c r="G124" s="31"/>
@@ -8156,10 +8163,10 @@
         <v>61</v>
       </c>
       <c r="D125" s="28" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E125" s="29" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F125" s="31"/>
       <c r="G125" s="31"/>
@@ -8197,10 +8204,10 @@
         <v>61</v>
       </c>
       <c r="D126" s="28" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E126" s="29" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F126" s="31"/>
       <c r="G126" s="31"/>
@@ -8238,10 +8245,10 @@
         <v>61</v>
       </c>
       <c r="D127" s="28" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E127" s="29" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F127" s="31"/>
       <c r="G127" s="31"/>
@@ -8279,10 +8286,10 @@
         <v>61</v>
       </c>
       <c r="D128" s="28" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E128" s="29" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F128" s="31"/>
       <c r="G128" s="31"/>
@@ -8320,10 +8327,10 @@
         <v>61</v>
       </c>
       <c r="D129" s="28" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E129" s="29" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F129" s="31"/>
       <c r="G129" s="31"/>
@@ -8361,10 +8368,10 @@
         <v>61</v>
       </c>
       <c r="D130" s="28" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E130" s="29" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F130" s="31"/>
       <c r="G130" s="31"/>
@@ -8402,10 +8409,10 @@
         <v>57</v>
       </c>
       <c r="D131" s="28" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E131" s="29" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F131" s="31"/>
       <c r="G131" s="31"/>
@@ -8439,10 +8446,10 @@
         <v>57</v>
       </c>
       <c r="D132" s="28" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E132" s="29" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F132" s="31"/>
       <c r="G132" s="31"/>
@@ -8476,10 +8483,10 @@
         <v>57</v>
       </c>
       <c r="D133" s="28" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E133" s="29" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F133" s="31"/>
       <c r="G133" s="31"/>
@@ -8513,10 +8520,10 @@
         <v>57</v>
       </c>
       <c r="D134" s="28" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E134" s="29" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F134" s="31"/>
       <c r="G134" s="31"/>
@@ -8550,10 +8557,10 @@
         <v>57</v>
       </c>
       <c r="D135" s="28" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E135" s="29" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F135" s="31"/>
       <c r="G135" s="31"/>
@@ -8587,10 +8594,10 @@
         <v>57</v>
       </c>
       <c r="D136" s="28" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E136" s="29" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F136" s="31"/>
       <c r="G136" s="31"/>
@@ -8624,10 +8631,10 @@
         <v>57</v>
       </c>
       <c r="D137" s="28" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E137" s="29" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F137" s="31"/>
       <c r="G137" s="31"/>
@@ -8661,10 +8668,10 @@
         <v>57</v>
       </c>
       <c r="D138" s="28" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E138" s="29" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F138" s="31"/>
       <c r="G138" s="31"/>
@@ -8698,10 +8705,10 @@
         <v>57</v>
       </c>
       <c r="D139" s="28" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E139" s="29" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F139" s="31"/>
       <c r="G139" s="31"/>
@@ -8735,10 +8742,10 @@
         <v>57</v>
       </c>
       <c r="D140" s="28" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E140" s="29" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F140" s="31"/>
       <c r="G140" s="31"/>
@@ -8772,10 +8779,10 @@
         <v>57</v>
       </c>
       <c r="D141" s="28" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E141" s="29" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F141" s="31"/>
       <c r="G141" s="31"/>
@@ -8809,10 +8816,10 @@
         <v>57</v>
       </c>
       <c r="D142" s="28" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E142" s="29" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F142" s="31"/>
       <c r="G142" s="31"/>
@@ -8846,10 +8853,10 @@
         <v>57</v>
       </c>
       <c r="D143" s="28" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E143" s="29" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F143" s="31"/>
       <c r="G143" s="31"/>
@@ -8883,10 +8890,10 @@
         <v>57</v>
       </c>
       <c r="D144" s="28" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E144" s="29" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F144" s="31"/>
       <c r="G144" s="31"/>
@@ -8920,10 +8927,10 @@
         <v>57</v>
       </c>
       <c r="D145" s="28" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E145" s="29" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F145" s="31"/>
       <c r="G145" s="31"/>
@@ -8957,10 +8964,10 @@
         <v>48</v>
       </c>
       <c r="D146" s="28" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E146" s="29" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F146" s="31"/>
       <c r="G146" s="31"/>
@@ -8994,10 +9001,10 @@
         <v>48</v>
       </c>
       <c r="D147" s="28" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E147" s="29" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F147" s="31"/>
       <c r="G147" s="31"/>
@@ -9028,13 +9035,13 @@
         <v>47</v>
       </c>
       <c r="C148" s="35" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D148" s="28" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E148" s="29" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F148" s="31"/>
       <c r="G148" s="31"/>
@@ -9065,13 +9072,13 @@
         <v>47</v>
       </c>
       <c r="C149" s="35" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D149" s="28" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E149" s="29" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F149" s="31"/>
       <c r="G149" s="31"/>
@@ -9102,13 +9109,13 @@
         <v>47</v>
       </c>
       <c r="C150" s="35" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D150" s="28" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E150" s="29" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F150" s="31"/>
       <c r="G150" s="31"/>
@@ -9139,10 +9146,10 @@
         <v>47</v>
       </c>
       <c r="C151" s="35" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D151" s="28" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E151" s="36" t="s">
         <v>53</v>
@@ -9176,10 +9183,10 @@
         <v>47</v>
       </c>
       <c r="C152" s="35" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D152" s="28" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E152" s="36" t="s">
         <v>72</v>
@@ -9213,13 +9220,13 @@
         <v>47</v>
       </c>
       <c r="C153" s="35" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D153" s="28" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E153" s="29" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F153" s="31"/>
       <c r="G153" s="31"/>
@@ -9250,13 +9257,13 @@
         <v>47</v>
       </c>
       <c r="C154" s="35" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D154" s="28" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E154" s="29" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F154" s="31"/>
       <c r="G154" s="31"/>
@@ -9287,13 +9294,13 @@
         <v>47</v>
       </c>
       <c r="C155" s="35" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D155" s="28" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E155" s="29" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F155" s="31"/>
       <c r="G155" s="31"/>
@@ -9324,13 +9331,13 @@
         <v>47</v>
       </c>
       <c r="C156" s="35" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D156" s="28" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E156" s="29" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F156" s="31"/>
       <c r="G156" s="31"/>
@@ -9361,13 +9368,13 @@
         <v>47</v>
       </c>
       <c r="C157" s="35" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D157" s="28" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E157" s="29" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F157" s="31"/>
       <c r="G157" s="31"/>
@@ -9398,13 +9405,13 @@
         <v>47</v>
       </c>
       <c r="C158" s="35" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D158" s="28" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E158" s="29" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F158" s="31"/>
       <c r="G158" s="31"/>
@@ -9435,13 +9442,13 @@
         <v>47</v>
       </c>
       <c r="C159" s="35" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D159" s="28" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E159" s="29" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F159" s="31"/>
       <c r="G159" s="31"/>
@@ -9472,13 +9479,13 @@
         <v>47</v>
       </c>
       <c r="C160" s="35" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D160" s="28" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E160" s="29" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F160" s="31"/>
       <c r="G160" s="31"/>
@@ -9509,13 +9516,13 @@
         <v>47</v>
       </c>
       <c r="C161" s="35" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D161" s="28" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E161" s="29" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F161" s="31"/>
       <c r="G161" s="31"/>
@@ -9546,13 +9553,13 @@
         <v>47</v>
       </c>
       <c r="C162" s="35" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D162" s="28" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E162" s="29" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F162" s="31"/>
       <c r="G162" s="31"/>
@@ -9583,13 +9590,13 @@
         <v>47</v>
       </c>
       <c r="C163" s="35" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D163" s="28" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E163" s="29" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F163" s="31"/>
       <c r="G163" s="31"/>
@@ -9623,10 +9630,10 @@
         <v>57</v>
       </c>
       <c r="D164" s="28" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E164" s="29" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F164" s="31"/>
       <c r="G164" s="31"/>
@@ -9660,10 +9667,10 @@
         <v>57</v>
       </c>
       <c r="D165" s="28" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E165" s="29" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F165" s="31"/>
       <c r="G165" s="31"/>
@@ -9697,22 +9704,22 @@
         <v>61</v>
       </c>
       <c r="D166" s="28" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E166" s="29" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F166" s="31" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G166" s="38" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H166" s="39" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="I166" s="39" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="J166" s="32" t="s">
         <v>82</v>
@@ -9744,10 +9751,10 @@
         <v>61</v>
       </c>
       <c r="D167" s="28" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E167" s="29" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F167" s="31"/>
       <c r="G167" s="31"/>
@@ -9785,10 +9792,10 @@
         <v>55</v>
       </c>
       <c r="D168" s="28" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E168" s="29" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F168" s="31"/>
       <c r="G168" s="31"/>
@@ -9822,10 +9829,10 @@
         <v>55</v>
       </c>
       <c r="D169" s="28" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E169" s="29" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F169" s="31"/>
       <c r="G169" s="31"/>
@@ -9859,10 +9866,10 @@
         <v>48</v>
       </c>
       <c r="D170" s="28" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E170" s="29" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F170" s="31"/>
       <c r="G170" s="31"/>
@@ -9896,10 +9903,10 @@
         <v>69</v>
       </c>
       <c r="D171" s="28" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E171" s="29" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F171" s="31"/>
       <c r="G171" s="31"/>
@@ -9933,10 +9940,10 @@
         <v>69</v>
       </c>
       <c r="D172" s="28" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E172" s="29" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F172" s="31"/>
       <c r="G172" s="31"/>
@@ -9970,10 +9977,10 @@
         <v>67</v>
       </c>
       <c r="D173" s="28" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E173" s="29" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F173" s="31"/>
       <c r="G173" s="31"/>
@@ -10007,10 +10014,10 @@
         <v>67</v>
       </c>
       <c r="D174" s="28" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E174" s="29" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F174" s="31"/>
       <c r="G174" s="31"/>
@@ -10044,10 +10051,10 @@
         <v>65</v>
       </c>
       <c r="D175" s="28" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E175" s="29" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F175" s="31"/>
       <c r="G175" s="31"/>
@@ -10081,10 +10088,10 @@
         <v>65</v>
       </c>
       <c r="D176" s="28" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E176" s="29" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F176" s="31"/>
       <c r="G176" s="31"/>
@@ -10115,13 +10122,13 @@
         <v>47</v>
       </c>
       <c r="C177" s="35" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D177" s="28" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E177" s="29" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F177" s="31"/>
       <c r="G177" s="31"/>
@@ -10155,10 +10162,10 @@
         <v>61</v>
       </c>
       <c r="D178" s="28" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E178" s="29" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F178" s="28"/>
       <c r="G178" s="28"/>
@@ -10196,10 +10203,10 @@
         <v>59</v>
       </c>
       <c r="D179" s="28" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E179" s="29" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F179" s="28"/>
       <c r="G179" s="28"/>
@@ -10233,10 +10240,10 @@
         <v>69</v>
       </c>
       <c r="D180" s="28" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E180" s="29" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F180" s="28"/>
       <c r="G180" s="28"/>
@@ -10270,10 +10277,10 @@
         <v>65</v>
       </c>
       <c r="D181" s="28" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E181" s="29" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F181" s="28"/>
       <c r="G181" s="28"/>
@@ -10307,10 +10314,10 @@
         <v>67</v>
       </c>
       <c r="D182" s="28" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E182" s="29" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F182" s="28"/>
       <c r="G182" s="28"/>
@@ -10344,10 +10351,10 @@
         <v>48</v>
       </c>
       <c r="D183" s="28" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E183" s="29" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F183" s="28"/>
       <c r="G183" s="28"/>
@@ -10381,10 +10388,10 @@
         <v>55</v>
       </c>
       <c r="D184" s="28" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E184" s="29" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F184" s="28"/>
       <c r="G184" s="28"/>
@@ -10418,10 +10425,10 @@
         <v>61</v>
       </c>
       <c r="D185" s="28" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E185" s="29" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F185" s="28"/>
       <c r="G185" s="28"/>
@@ -10459,10 +10466,10 @@
         <v>57</v>
       </c>
       <c r="D186" s="28" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E186" s="29" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F186" s="28"/>
       <c r="G186" s="28"/>
@@ -10493,13 +10500,13 @@
         <v>47</v>
       </c>
       <c r="C187" s="35" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D187" s="28" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E187" s="29" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F187" s="28"/>
       <c r="G187" s="28"/>
@@ -10533,10 +10540,10 @@
         <v>59</v>
       </c>
       <c r="D188" s="28" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E188" s="29" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F188" s="31"/>
       <c r="G188" s="31"/>
@@ -10570,10 +10577,10 @@
         <v>59</v>
       </c>
       <c r="D189" s="28" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E189" s="29" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F189" s="31"/>
       <c r="G189" s="31"/>
@@ -10607,10 +10614,10 @@
         <v>48</v>
       </c>
       <c r="D190" s="35" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E190" s="29" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F190" s="31"/>
       <c r="G190" s="31"/>
@@ -10644,10 +10651,10 @@
         <v>59</v>
       </c>
       <c r="D191" s="28" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E191" s="29" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F191" s="31"/>
       <c r="G191" s="31"/>
@@ -10681,10 +10688,10 @@
         <v>61</v>
       </c>
       <c r="D192" s="28" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E192" s="29" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F192" s="31"/>
       <c r="G192" s="31"/>
@@ -14779,32 +14786,32 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14814,7 +14821,7 @@
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -14841,7 +14848,7 @@
       <selection pane="bottomLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.49609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.82"/>
@@ -14854,22 +14861,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G1" s="41" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14877,13 +14884,13 @@
         <v>48</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D2" s="44" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14891,13 +14898,13 @@
         <v>55</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14905,13 +14912,13 @@
         <v>59</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14919,13 +14926,13 @@
         <v>65</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14933,13 +14940,13 @@
         <v>67</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14947,13 +14954,13 @@
         <v>69</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14961,13 +14968,13 @@
         <v>61</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14975,41 +14982,41 @@
         <v>57</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="42" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="42" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D11" s="45" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15989,7 +15996,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.49609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.17"/>
@@ -16006,7 +16013,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="48" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B2" s="48" t="s">
         <v>82</v>
@@ -16014,7 +16021,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="48" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B3" s="48" t="s">
         <v>63</v>
